--- a/data/Web_MEM_MGU/2023_12_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2023_12_mem_mgu.xlsx
@@ -2673,7 +2673,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1701388800</v>
+        <v>1701378000</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1701388800</v>
+        <v>1701378000</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1701392400</v>
+        <v>1701381600</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1701392400</v>
+        <v>1701381600</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1701396000</v>
+        <v>1701385200</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1701396000</v>
+        <v>1701385200</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1701399600</v>
+        <v>1701388800</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1701399600</v>
+        <v>1701388800</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1701403200</v>
+        <v>1701392400</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1701403200</v>
+        <v>1701392400</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1701406800</v>
+        <v>1701396000</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1701406800</v>
+        <v>1701396000</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1701410400</v>
+        <v>1701399600</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1701410400</v>
+        <v>1701399600</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1701414000</v>
+        <v>1701403200</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1701414000</v>
+        <v>1701403200</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1701417600</v>
+        <v>1701406800</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>1701417600</v>
+        <v>1701406800</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1701421200</v>
+        <v>1701410400</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1701421200</v>
+        <v>1701410400</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1701424800</v>
+        <v>1701414000</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>1701428400</v>
+        <v>1701417600</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1701432000</v>
+        <v>1701421200</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>1701435600</v>
+        <v>1701424800</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>1701439200</v>
+        <v>1701428400</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1701442800</v>
+        <v>1701432000</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1701446400</v>
+        <v>1701435600</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1701450000</v>
+        <v>1701439200</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1701453600</v>
+        <v>1701442800</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1701457200</v>
+        <v>1701446400</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>1701460800</v>
+        <v>1701450000</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>1701464400</v>
+        <v>1701453600</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>1701468000</v>
+        <v>1701457200</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>1701471600</v>
+        <v>1701460800</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>1701475200</v>
+        <v>1701464400</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>1701478800</v>
+        <v>1701468000</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>1701482400</v>
+        <v>1701471600</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>1701486000</v>
+        <v>1701475200</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>1701489600</v>
+        <v>1701478800</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>1701493200</v>
+        <v>1701482400</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1701496800</v>
+        <v>1701486000</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>1701500400</v>
+        <v>1701489600</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>1701504000</v>
+        <v>1701493200</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>1701507600</v>
+        <v>1701496800</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>1701511200</v>
+        <v>1701500400</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>1701514800</v>
+        <v>1701504000</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>1701518400</v>
+        <v>1701507600</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>1701522000</v>
+        <v>1701511200</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1701525600</v>
+        <v>1701514800</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1701529200</v>
+        <v>1701518400</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>1701532800</v>
+        <v>1701522000</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1701536400</v>
+        <v>1701525600</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>1701540000</v>
+        <v>1701529200</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1701543600</v>
+        <v>1701532800</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1701547200</v>
+        <v>1701536400</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1701550800</v>
+        <v>1701540000</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1701554400</v>
+        <v>1701543600</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1701558000</v>
+        <v>1701547200</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1701561600</v>
+        <v>1701550800</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1701565200</v>
+        <v>1701554400</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1701568800</v>
+        <v>1701558000</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1701572400</v>
+        <v>1701561600</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1701576000</v>
+        <v>1701565200</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1701579600</v>
+        <v>1701568800</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1701583200</v>
+        <v>1701572400</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1701586800</v>
+        <v>1701576000</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1701590400</v>
+        <v>1701579600</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1701594000</v>
+        <v>1701583200</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1701597600</v>
+        <v>1701586800</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1701601200</v>
+        <v>1701590400</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1701604800</v>
+        <v>1701594000</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1701608400</v>
+        <v>1701597600</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1701612000</v>
+        <v>1701601200</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1701615600</v>
+        <v>1701604800</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1701619200</v>
+        <v>1701608400</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1701622800</v>
+        <v>1701612000</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1701626400</v>
+        <v>1701615600</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1701630000</v>
+        <v>1701619200</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1701633600</v>
+        <v>1701622800</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1701637200</v>
+        <v>1701626400</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1701640800</v>
+        <v>1701630000</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1701644400</v>
+        <v>1701633600</v>
       </c>
       <c r="B83" t="s">
         <v>81</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1701648000</v>
+        <v>1701637200</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1701651600</v>
+        <v>1701640800</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1701655200</v>
+        <v>1701644400</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1701658800</v>
+        <v>1701648000</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1701662400</v>
+        <v>1701651600</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1701666000</v>
+        <v>1701655200</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1701669600</v>
+        <v>1701658800</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1701673200</v>
+        <v>1701662400</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1701676800</v>
+        <v>1701666000</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1701680400</v>
+        <v>1701669600</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1701684000</v>
+        <v>1701673200</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1701687600</v>
+        <v>1701676800</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1701691200</v>
+        <v>1701680400</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1701694800</v>
+        <v>1701684000</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1701698400</v>
+        <v>1701687600</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1701702000</v>
+        <v>1701691200</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1701705600</v>
+        <v>1701694800</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1701709200</v>
+        <v>1701698400</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1701712800</v>
+        <v>1701702000</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1701716400</v>
+        <v>1701705600</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1701720000</v>
+        <v>1701709200</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1701723600</v>
+        <v>1701712800</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1701727200</v>
+        <v>1701716400</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1701730800</v>
+        <v>1701720000</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1701734400</v>
+        <v>1701723600</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1701738000</v>
+        <v>1701727200</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1701741600</v>
+        <v>1701730800</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1701745200</v>
+        <v>1701734400</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1701748800</v>
+        <v>1701738000</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1701752400</v>
+        <v>1701741600</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1701756000</v>
+        <v>1701745200</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1701759600</v>
+        <v>1701748800</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1701763200</v>
+        <v>1701752400</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>1701766800</v>
+        <v>1701756000</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>1701770400</v>
+        <v>1701759600</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>1701774000</v>
+        <v>1701763200</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1701777600</v>
+        <v>1701766800</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>1701781200</v>
+        <v>1701770400</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>1701784800</v>
+        <v>1701774000</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>1701788400</v>
+        <v>1701777600</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>1701792000</v>
+        <v>1701781200</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>1701795600</v>
+        <v>1701784800</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>1701799200</v>
+        <v>1701788400</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>1701802800</v>
+        <v>1701792000</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>1701806400</v>
+        <v>1701795600</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>1701810000</v>
+        <v>1701799200</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>1701813600</v>
+        <v>1701802800</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>1701817200</v>
+        <v>1701806400</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>1701820800</v>
+        <v>1701810000</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>1701824400</v>
+        <v>1701813600</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>1701828000</v>
+        <v>1701817200</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>1701828000</v>
+        <v>1701817200</v>
       </c>
       <c r="B135" t="s">
         <v>132</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>1701831600</v>
+        <v>1701820800</v>
       </c>
       <c r="B136" t="s">
         <v>133</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>1701831600</v>
+        <v>1701820800</v>
       </c>
       <c r="B137" t="s">
         <v>133</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>1701835200</v>
+        <v>1701824400</v>
       </c>
       <c r="B138" t="s">
         <v>134</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>1701835200</v>
+        <v>1701824400</v>
       </c>
       <c r="B139" t="s">
         <v>134</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>1701838800</v>
+        <v>1701828000</v>
       </c>
       <c r="B140" t="s">
         <v>135</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>1701838800</v>
+        <v>1701828000</v>
       </c>
       <c r="B141" t="s">
         <v>135</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>1701842400</v>
+        <v>1701831600</v>
       </c>
       <c r="B142" t="s">
         <v>136</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>1701842400</v>
+        <v>1701831600</v>
       </c>
       <c r="B143" t="s">
         <v>136</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>1701846000</v>
+        <v>1701835200</v>
       </c>
       <c r="B144" t="s">
         <v>137</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>1701846000</v>
+        <v>1701835200</v>
       </c>
       <c r="B145" t="s">
         <v>137</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>1701849600</v>
+        <v>1701838800</v>
       </c>
       <c r="B146" t="s">
         <v>138</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>1701849600</v>
+        <v>1701838800</v>
       </c>
       <c r="B147" t="s">
         <v>138</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>1701853200</v>
+        <v>1701842400</v>
       </c>
       <c r="B148" t="s">
         <v>139</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1701853200</v>
+        <v>1701842400</v>
       </c>
       <c r="B149" t="s">
         <v>139</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>1701856800</v>
+        <v>1701846000</v>
       </c>
       <c r="B150" t="s">
         <v>140</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>1701856800</v>
+        <v>1701846000</v>
       </c>
       <c r="B151" t="s">
         <v>140</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>1701860400</v>
+        <v>1701849600</v>
       </c>
       <c r="B152" t="s">
         <v>141</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>1701860400</v>
+        <v>1701849600</v>
       </c>
       <c r="B153" t="s">
         <v>141</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>1701864000</v>
+        <v>1701853200</v>
       </c>
       <c r="B154" t="s">
         <v>142</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>1701864000</v>
+        <v>1701853200</v>
       </c>
       <c r="B155" t="s">
         <v>142</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>1701867600</v>
+        <v>1701856800</v>
       </c>
       <c r="B156" t="s">
         <v>143</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>1701867600</v>
+        <v>1701856800</v>
       </c>
       <c r="B157" t="s">
         <v>143</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>1701871200</v>
+        <v>1701860400</v>
       </c>
       <c r="B158" t="s">
         <v>144</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>1701871200</v>
+        <v>1701860400</v>
       </c>
       <c r="B159" t="s">
         <v>144</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>1701874800</v>
+        <v>1701864000</v>
       </c>
       <c r="B160" t="s">
         <v>145</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>1701874800</v>
+        <v>1701864000</v>
       </c>
       <c r="B161" t="s">
         <v>145</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>1701878400</v>
+        <v>1701867600</v>
       </c>
       <c r="B162" t="s">
         <v>146</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>1701878400</v>
+        <v>1701867600</v>
       </c>
       <c r="B163" t="s">
         <v>146</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>1701882000</v>
+        <v>1701871200</v>
       </c>
       <c r="B164" t="s">
         <v>147</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>1701882000</v>
+        <v>1701871200</v>
       </c>
       <c r="B165" t="s">
         <v>147</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>1701885600</v>
+        <v>1701874800</v>
       </c>
       <c r="B166" t="s">
         <v>148</v>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>1701885600</v>
+        <v>1701874800</v>
       </c>
       <c r="B167" t="s">
         <v>148</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>1701889200</v>
+        <v>1701878400</v>
       </c>
       <c r="B168" t="s">
         <v>149</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>1701889200</v>
+        <v>1701878400</v>
       </c>
       <c r="B169" t="s">
         <v>149</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>1701892800</v>
+        <v>1701882000</v>
       </c>
       <c r="B170" t="s">
         <v>150</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>1701892800</v>
+        <v>1701882000</v>
       </c>
       <c r="B171" t="s">
         <v>150</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>1701896400</v>
+        <v>1701885600</v>
       </c>
       <c r="B172" t="s">
         <v>151</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>1701896400</v>
+        <v>1701885600</v>
       </c>
       <c r="B173" t="s">
         <v>151</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>1701900000</v>
+        <v>1701889200</v>
       </c>
       <c r="B174" t="s">
         <v>152</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>1701900000</v>
+        <v>1701889200</v>
       </c>
       <c r="B175" t="s">
         <v>152</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>1701903600</v>
+        <v>1701892800</v>
       </c>
       <c r="B176" t="s">
         <v>153</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>1701903600</v>
+        <v>1701892800</v>
       </c>
       <c r="B177" t="s">
         <v>153</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>1701907200</v>
+        <v>1701896400</v>
       </c>
       <c r="B178" t="s">
         <v>154</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>1701907200</v>
+        <v>1701896400</v>
       </c>
       <c r="B179" t="s">
         <v>154</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>1701910800</v>
+        <v>1701900000</v>
       </c>
       <c r="B180" t="s">
         <v>155</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>1701910800</v>
+        <v>1701900000</v>
       </c>
       <c r="B181" t="s">
         <v>155</v>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>1701914400</v>
+        <v>1701903600</v>
       </c>
       <c r="B182" t="s">
         <v>156</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>1701914400</v>
+        <v>1701903600</v>
       </c>
       <c r="B183" t="s">
         <v>156</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>1701918000</v>
+        <v>1701907200</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>1701918000</v>
+        <v>1701907200</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>1701921600</v>
+        <v>1701910800</v>
       </c>
       <c r="B186" t="s">
         <v>158</v>
@@ -8482,7 +8482,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>1701921600</v>
+        <v>1701910800</v>
       </c>
       <c r="B187" t="s">
         <v>158</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>1701925200</v>
+        <v>1701914400</v>
       </c>
       <c r="B188" t="s">
         <v>159</v>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>1701925200</v>
+        <v>1701914400</v>
       </c>
       <c r="B189" t="s">
         <v>159</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>1701928800</v>
+        <v>1701918000</v>
       </c>
       <c r="B190" t="s">
         <v>160</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>1701928800</v>
+        <v>1701918000</v>
       </c>
       <c r="B191" t="s">
         <v>160</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>1701932400</v>
+        <v>1701921600</v>
       </c>
       <c r="B192" t="s">
         <v>161</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1701932400</v>
+        <v>1701921600</v>
       </c>
       <c r="B193" t="s">
         <v>161</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>1701936000</v>
+        <v>1701925200</v>
       </c>
       <c r="B194" t="s">
         <v>162</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>1701936000</v>
+        <v>1701925200</v>
       </c>
       <c r="B195" t="s">
         <v>162</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>1701939600</v>
+        <v>1701928800</v>
       </c>
       <c r="B196" t="s">
         <v>163</v>
@@ -8790,7 +8790,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>1701939600</v>
+        <v>1701928800</v>
       </c>
       <c r="B197" t="s">
         <v>163</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>1701943200</v>
+        <v>1701932400</v>
       </c>
       <c r="B198" t="s">
         <v>164</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>1701943200</v>
+        <v>1701932400</v>
       </c>
       <c r="B199" t="s">
         <v>164</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>1701946800</v>
+        <v>1701936000</v>
       </c>
       <c r="B200" t="s">
         <v>165</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>1701946800</v>
+        <v>1701936000</v>
       </c>
       <c r="B201" t="s">
         <v>165</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>1701950400</v>
+        <v>1701939600</v>
       </c>
       <c r="B202" t="s">
         <v>166</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>1701950400</v>
+        <v>1701939600</v>
       </c>
       <c r="B203" t="s">
         <v>166</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>1701954000</v>
+        <v>1701943200</v>
       </c>
       <c r="B204" t="s">
         <v>167</v>
@@ -9034,7 +9034,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>1701954000</v>
+        <v>1701943200</v>
       </c>
       <c r="B205" t="s">
         <v>167</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>1701957600</v>
+        <v>1701946800</v>
       </c>
       <c r="B206" t="s">
         <v>168</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>1701957600</v>
+        <v>1701946800</v>
       </c>
       <c r="B207" t="s">
         <v>168</v>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208">
-        <v>1701961200</v>
+        <v>1701950400</v>
       </c>
       <c r="B208" t="s">
         <v>169</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>1701961200</v>
+        <v>1701950400</v>
       </c>
       <c r="B209" t="s">
         <v>169</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
-        <v>1701964800</v>
+        <v>1701954000</v>
       </c>
       <c r="B210" t="s">
         <v>170</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>1701964800</v>
+        <v>1701954000</v>
       </c>
       <c r="B211" t="s">
         <v>170</v>
@@ -9246,7 +9246,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1701968400</v>
+        <v>1701957600</v>
       </c>
       <c r="B212" t="s">
         <v>171</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213">
-        <v>1701968400</v>
+        <v>1701957600</v>
       </c>
       <c r="B213" t="s">
         <v>171</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
-        <v>1701972000</v>
+        <v>1701961200</v>
       </c>
       <c r="B214" t="s">
         <v>172</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>1701972000</v>
+        <v>1701961200</v>
       </c>
       <c r="B215" t="s">
         <v>172</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>1701975600</v>
+        <v>1701964800</v>
       </c>
       <c r="B216" t="s">
         <v>173</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>1701975600</v>
+        <v>1701964800</v>
       </c>
       <c r="B217" t="s">
         <v>173</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>1701979200</v>
+        <v>1701968400</v>
       </c>
       <c r="B218" t="s">
         <v>174</v>
@@ -9458,7 +9458,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>1701979200</v>
+        <v>1701968400</v>
       </c>
       <c r="B219" t="s">
         <v>174</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>1701982800</v>
+        <v>1701972000</v>
       </c>
       <c r="B220" t="s">
         <v>175</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>1701982800</v>
+        <v>1701972000</v>
       </c>
       <c r="B221" t="s">
         <v>175</v>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
-        <v>1701986400</v>
+        <v>1701975600</v>
       </c>
       <c r="B222" t="s">
         <v>176</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
-        <v>1701986400</v>
+        <v>1701975600</v>
       </c>
       <c r="B223" t="s">
         <v>176</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
-        <v>1701990000</v>
+        <v>1701979200</v>
       </c>
       <c r="B224" t="s">
         <v>177</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
-        <v>1701990000</v>
+        <v>1701979200</v>
       </c>
       <c r="B225" t="s">
         <v>177</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226">
-        <v>1701993600</v>
+        <v>1701982800</v>
       </c>
       <c r="B226" t="s">
         <v>178</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>1701993600</v>
+        <v>1701982800</v>
       </c>
       <c r="B227" t="s">
         <v>178</v>
@@ -9734,7 +9734,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>1701997200</v>
+        <v>1701986400</v>
       </c>
       <c r="B228" t="s">
         <v>179</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>1702000800</v>
+        <v>1701990000</v>
       </c>
       <c r="B229" t="s">
         <v>180</v>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>1702004400</v>
+        <v>1701993600</v>
       </c>
       <c r="B230" t="s">
         <v>181</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>1702008000</v>
+        <v>1701997200</v>
       </c>
       <c r="B231" t="s">
         <v>182</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>1702011600</v>
+        <v>1702000800</v>
       </c>
       <c r="B232" t="s">
         <v>183</v>
@@ -9879,7 +9879,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
-        <v>1702015200</v>
+        <v>1702004400</v>
       </c>
       <c r="B233" t="s">
         <v>184</v>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
-        <v>1702018800</v>
+        <v>1702008000</v>
       </c>
       <c r="B234" t="s">
         <v>185</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
-        <v>1702022400</v>
+        <v>1702011600</v>
       </c>
       <c r="B235" t="s">
         <v>186</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
-        <v>1702026000</v>
+        <v>1702015200</v>
       </c>
       <c r="B236" t="s">
         <v>187</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
-        <v>1702029600</v>
+        <v>1702018800</v>
       </c>
       <c r="B237" t="s">
         <v>188</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238">
-        <v>1702033200</v>
+        <v>1702022400</v>
       </c>
       <c r="B238" t="s">
         <v>189</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239">
-        <v>1702036800</v>
+        <v>1702026000</v>
       </c>
       <c r="B239" t="s">
         <v>190</v>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240">
-        <v>1702040400</v>
+        <v>1702029600</v>
       </c>
       <c r="B240" t="s">
         <v>191</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241">
-        <v>1702044000</v>
+        <v>1702033200</v>
       </c>
       <c r="B241" t="s">
         <v>192</v>
@@ -10140,7 +10140,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242">
-        <v>1702047600</v>
+        <v>1702036800</v>
       </c>
       <c r="B242" t="s">
         <v>193</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>1702051200</v>
+        <v>1702040400</v>
       </c>
       <c r="B243" t="s">
         <v>194</v>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>1702054800</v>
+        <v>1702044000</v>
       </c>
       <c r="B244" t="s">
         <v>195</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>1702058400</v>
+        <v>1702047600</v>
       </c>
       <c r="B245" t="s">
         <v>196</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>1702062000</v>
+        <v>1702051200</v>
       </c>
       <c r="B246" t="s">
         <v>197</v>
@@ -10285,7 +10285,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>1702065600</v>
+        <v>1702054800</v>
       </c>
       <c r="B247" t="s">
         <v>198</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>1702069200</v>
+        <v>1702058400</v>
       </c>
       <c r="B248" t="s">
         <v>199</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>1702072800</v>
+        <v>1702062000</v>
       </c>
       <c r="B249" t="s">
         <v>200</v>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250">
-        <v>1702076400</v>
+        <v>1702065600</v>
       </c>
       <c r="B250" t="s">
         <v>201</v>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
-        <v>1702080000</v>
+        <v>1702069200</v>
       </c>
       <c r="B251" t="s">
         <v>202</v>
@@ -10430,7 +10430,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
-        <v>1702083600</v>
+        <v>1702072800</v>
       </c>
       <c r="B252" t="s">
         <v>203</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
-        <v>1702087200</v>
+        <v>1702076400</v>
       </c>
       <c r="B253" t="s">
         <v>204</v>
@@ -10488,7 +10488,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
-        <v>1702090800</v>
+        <v>1702080000</v>
       </c>
       <c r="B254" t="s">
         <v>205</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255">
-        <v>1702094400</v>
+        <v>1702083600</v>
       </c>
       <c r="B255" t="s">
         <v>206</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
-        <v>1702098000</v>
+        <v>1702087200</v>
       </c>
       <c r="B256" t="s">
         <v>207</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
-        <v>1702101600</v>
+        <v>1702090800</v>
       </c>
       <c r="B257" t="s">
         <v>208</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258">
-        <v>1702105200</v>
+        <v>1702094400</v>
       </c>
       <c r="B258" t="s">
         <v>209</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259">
-        <v>1702108800</v>
+        <v>1702098000</v>
       </c>
       <c r="B259" t="s">
         <v>210</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
-        <v>1702112400</v>
+        <v>1702101600</v>
       </c>
       <c r="B260" t="s">
         <v>211</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
-        <v>1702116000</v>
+        <v>1702105200</v>
       </c>
       <c r="B261" t="s">
         <v>212</v>
@@ -10720,7 +10720,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
-        <v>1702119600</v>
+        <v>1702108800</v>
       </c>
       <c r="B262" t="s">
         <v>213</v>
@@ -10749,7 +10749,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263">
-        <v>1702123200</v>
+        <v>1702112400</v>
       </c>
       <c r="B263" t="s">
         <v>214</v>
@@ -10778,7 +10778,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264">
-        <v>1702126800</v>
+        <v>1702116000</v>
       </c>
       <c r="B264" t="s">
         <v>215</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265">
-        <v>1702130400</v>
+        <v>1702119600</v>
       </c>
       <c r="B265" t="s">
         <v>216</v>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266">
-        <v>1702134000</v>
+        <v>1702123200</v>
       </c>
       <c r="B266" t="s">
         <v>217</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267">
-        <v>1702137600</v>
+        <v>1702126800</v>
       </c>
       <c r="B267" t="s">
         <v>218</v>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268">
-        <v>1702141200</v>
+        <v>1702130400</v>
       </c>
       <c r="B268" t="s">
         <v>219</v>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269">
-        <v>1702144800</v>
+        <v>1702134000</v>
       </c>
       <c r="B269" t="s">
         <v>220</v>
@@ -10952,7 +10952,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270">
-        <v>1702148400</v>
+        <v>1702137600</v>
       </c>
       <c r="B270" t="s">
         <v>221</v>
@@ -10981,7 +10981,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271">
-        <v>1702152000</v>
+        <v>1702141200</v>
       </c>
       <c r="B271" t="s">
         <v>222</v>
@@ -11010,7 +11010,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272">
-        <v>1702155600</v>
+        <v>1702144800</v>
       </c>
       <c r="B272" t="s">
         <v>223</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273">
-        <v>1702159200</v>
+        <v>1702148400</v>
       </c>
       <c r="B273" t="s">
         <v>224</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274">
-        <v>1702162800</v>
+        <v>1702152000</v>
       </c>
       <c r="B274" t="s">
         <v>225</v>
@@ -11097,7 +11097,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275">
-        <v>1702166400</v>
+        <v>1702155600</v>
       </c>
       <c r="B275" t="s">
         <v>226</v>
@@ -11126,7 +11126,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276">
-        <v>1702170000</v>
+        <v>1702159200</v>
       </c>
       <c r="B276" t="s">
         <v>227</v>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277">
-        <v>1702173600</v>
+        <v>1702162800</v>
       </c>
       <c r="B277" t="s">
         <v>228</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278">
-        <v>1702177200</v>
+        <v>1702166400</v>
       </c>
       <c r="B278" t="s">
         <v>229</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279">
-        <v>1702180800</v>
+        <v>1702170000</v>
       </c>
       <c r="B279" t="s">
         <v>230</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280">
-        <v>1702184400</v>
+        <v>1702173600</v>
       </c>
       <c r="B280" t="s">
         <v>231</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281">
-        <v>1702188000</v>
+        <v>1702177200</v>
       </c>
       <c r="B281" t="s">
         <v>232</v>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282">
-        <v>1702191600</v>
+        <v>1702180800</v>
       </c>
       <c r="B282" t="s">
         <v>233</v>
@@ -11329,7 +11329,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283">
-        <v>1702195200</v>
+        <v>1702184400</v>
       </c>
       <c r="B283" t="s">
         <v>234</v>
@@ -11358,7 +11358,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284">
-        <v>1702198800</v>
+        <v>1702188000</v>
       </c>
       <c r="B284" t="s">
         <v>235</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285">
-        <v>1702202400</v>
+        <v>1702191600</v>
       </c>
       <c r="B285" t="s">
         <v>236</v>
@@ -11416,7 +11416,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286">
-        <v>1702206000</v>
+        <v>1702195200</v>
       </c>
       <c r="B286" t="s">
         <v>237</v>
@@ -11445,7 +11445,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287">
-        <v>1702209600</v>
+        <v>1702198800</v>
       </c>
       <c r="B287" t="s">
         <v>238</v>
@@ -11474,7 +11474,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288">
-        <v>1702213200</v>
+        <v>1702202400</v>
       </c>
       <c r="B288" t="s">
         <v>239</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289">
-        <v>1702216800</v>
+        <v>1702206000</v>
       </c>
       <c r="B289" t="s">
         <v>240</v>
@@ -11532,7 +11532,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290">
-        <v>1702220400</v>
+        <v>1702209600</v>
       </c>
       <c r="B290" t="s">
         <v>241</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291">
-        <v>1702224000</v>
+        <v>1702213200</v>
       </c>
       <c r="B291" t="s">
         <v>242</v>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292">
-        <v>1702227600</v>
+        <v>1702216800</v>
       </c>
       <c r="B292" t="s">
         <v>243</v>
@@ -11619,7 +11619,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293">
-        <v>1702231200</v>
+        <v>1702220400</v>
       </c>
       <c r="B293" t="s">
         <v>244</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294">
-        <v>1702234800</v>
+        <v>1702224000</v>
       </c>
       <c r="B294" t="s">
         <v>245</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295">
-        <v>1702238400</v>
+        <v>1702227600</v>
       </c>
       <c r="B295" t="s">
         <v>246</v>
@@ -11706,7 +11706,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296">
-        <v>1702242000</v>
+        <v>1702231200</v>
       </c>
       <c r="B296" t="s">
         <v>247</v>
@@ -11735,7 +11735,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297">
-        <v>1702245600</v>
+        <v>1702234800</v>
       </c>
       <c r="B297" t="s">
         <v>248</v>
@@ -11764,7 +11764,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298">
-        <v>1702249200</v>
+        <v>1702238400</v>
       </c>
       <c r="B298" t="s">
         <v>249</v>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299">
-        <v>1702252800</v>
+        <v>1702242000</v>
       </c>
       <c r="B299" t="s">
         <v>250</v>
@@ -11822,7 +11822,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300">
-        <v>1702256400</v>
+        <v>1702245600</v>
       </c>
       <c r="B300" t="s">
         <v>251</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301">
-        <v>1702260000</v>
+        <v>1702249200</v>
       </c>
       <c r="B301" t="s">
         <v>252</v>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302">
-        <v>1702263600</v>
+        <v>1702252800</v>
       </c>
       <c r="B302" t="s">
         <v>253</v>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303">
-        <v>1702267200</v>
+        <v>1702256400</v>
       </c>
       <c r="B303" t="s">
         <v>254</v>
@@ -11938,7 +11938,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304">
-        <v>1702270800</v>
+        <v>1702260000</v>
       </c>
       <c r="B304" t="s">
         <v>255</v>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305">
-        <v>1702274400</v>
+        <v>1702263600</v>
       </c>
       <c r="B305" t="s">
         <v>256</v>
@@ -11996,7 +11996,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306">
-        <v>1702278000</v>
+        <v>1702267200</v>
       </c>
       <c r="B306" t="s">
         <v>257</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307">
-        <v>1702281600</v>
+        <v>1702270800</v>
       </c>
       <c r="B307" t="s">
         <v>258</v>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308">
-        <v>1702285200</v>
+        <v>1702274400</v>
       </c>
       <c r="B308" t="s">
         <v>259</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309">
-        <v>1702288800</v>
+        <v>1702278000</v>
       </c>
       <c r="B309" t="s">
         <v>260</v>
@@ -12112,7 +12112,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310">
-        <v>1702292400</v>
+        <v>1702281600</v>
       </c>
       <c r="B310" t="s">
         <v>261</v>
@@ -12141,7 +12141,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311">
-        <v>1702296000</v>
+        <v>1702285200</v>
       </c>
       <c r="B311" t="s">
         <v>262</v>
@@ -12170,7 +12170,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312">
-        <v>1702299600</v>
+        <v>1702288800</v>
       </c>
       <c r="B312" t="s">
         <v>263</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313">
-        <v>1702303200</v>
+        <v>1702292400</v>
       </c>
       <c r="B313" t="s">
         <v>264</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314">
-        <v>1702306800</v>
+        <v>1702296000</v>
       </c>
       <c r="B314" t="s">
         <v>265</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315">
-        <v>1702310400</v>
+        <v>1702299600</v>
       </c>
       <c r="B315" t="s">
         <v>266</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316">
-        <v>1702314000</v>
+        <v>1702303200</v>
       </c>
       <c r="B316" t="s">
         <v>267</v>
@@ -12315,7 +12315,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317">
-        <v>1702317600</v>
+        <v>1702306800</v>
       </c>
       <c r="B317" t="s">
         <v>268</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318">
-        <v>1702321200</v>
+        <v>1702310400</v>
       </c>
       <c r="B318" t="s">
         <v>269</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319">
-        <v>1702324800</v>
+        <v>1702314000</v>
       </c>
       <c r="B319" t="s">
         <v>270</v>
@@ -12402,7 +12402,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320">
-        <v>1702328400</v>
+        <v>1702317600</v>
       </c>
       <c r="B320" t="s">
         <v>271</v>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321">
-        <v>1702332000</v>
+        <v>1702321200</v>
       </c>
       <c r="B321" t="s">
         <v>272</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322">
-        <v>1702335600</v>
+        <v>1702324800</v>
       </c>
       <c r="B322" t="s">
         <v>273</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323">
-        <v>1702339200</v>
+        <v>1702328400</v>
       </c>
       <c r="B323" t="s">
         <v>274</v>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324">
-        <v>1702342800</v>
+        <v>1702332000</v>
       </c>
       <c r="B324" t="s">
         <v>275</v>
@@ -12547,7 +12547,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325">
-        <v>1702346400</v>
+        <v>1702335600</v>
       </c>
       <c r="B325" t="s">
         <v>276</v>
@@ -12576,7 +12576,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326">
-        <v>1702350000</v>
+        <v>1702339200</v>
       </c>
       <c r="B326" t="s">
         <v>277</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327">
-        <v>1702353600</v>
+        <v>1702342800</v>
       </c>
       <c r="B327" t="s">
         <v>278</v>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328">
-        <v>1702357200</v>
+        <v>1702346400</v>
       </c>
       <c r="B328" t="s">
         <v>279</v>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329">
-        <v>1702360800</v>
+        <v>1702350000</v>
       </c>
       <c r="B329" t="s">
         <v>280</v>
@@ -12692,7 +12692,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330">
-        <v>1702364400</v>
+        <v>1702353600</v>
       </c>
       <c r="B330" t="s">
         <v>281</v>
@@ -12721,7 +12721,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331">
-        <v>1702368000</v>
+        <v>1702357200</v>
       </c>
       <c r="B331" t="s">
         <v>282</v>
@@ -12750,7 +12750,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332">
-        <v>1702371600</v>
+        <v>1702360800</v>
       </c>
       <c r="B332" t="s">
         <v>283</v>
@@ -12779,7 +12779,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333">
-        <v>1702375200</v>
+        <v>1702364400</v>
       </c>
       <c r="B333" t="s">
         <v>284</v>
@@ -12808,7 +12808,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334">
-        <v>1702378800</v>
+        <v>1702368000</v>
       </c>
       <c r="B334" t="s">
         <v>285</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335">
-        <v>1702382400</v>
+        <v>1702371600</v>
       </c>
       <c r="B335" t="s">
         <v>286</v>
@@ -12866,7 +12866,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336">
-        <v>1702386000</v>
+        <v>1702375200</v>
       </c>
       <c r="B336" t="s">
         <v>287</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337">
-        <v>1702389600</v>
+        <v>1702378800</v>
       </c>
       <c r="B337" t="s">
         <v>288</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338">
-        <v>1702393200</v>
+        <v>1702382400</v>
       </c>
       <c r="B338" t="s">
         <v>289</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339">
-        <v>1702396800</v>
+        <v>1702386000</v>
       </c>
       <c r="B339" t="s">
         <v>290</v>
@@ -12982,7 +12982,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340">
-        <v>1702400400</v>
+        <v>1702389600</v>
       </c>
       <c r="B340" t="s">
         <v>291</v>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341">
-        <v>1702404000</v>
+        <v>1702393200</v>
       </c>
       <c r="B341" t="s">
         <v>292</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342">
-        <v>1702407600</v>
+        <v>1702396800</v>
       </c>
       <c r="B342" t="s">
         <v>293</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343">
-        <v>1702411200</v>
+        <v>1702400400</v>
       </c>
       <c r="B343" t="s">
         <v>294</v>
@@ -13098,7 +13098,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344">
-        <v>1702414800</v>
+        <v>1702404000</v>
       </c>
       <c r="B344" t="s">
         <v>295</v>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345">
-        <v>1702418400</v>
+        <v>1702407600</v>
       </c>
       <c r="B345" t="s">
         <v>296</v>
@@ -13156,7 +13156,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346">
-        <v>1702422000</v>
+        <v>1702411200</v>
       </c>
       <c r="B346" t="s">
         <v>297</v>
@@ -13185,7 +13185,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347">
-        <v>1702425600</v>
+        <v>1702414800</v>
       </c>
       <c r="B347" t="s">
         <v>298</v>
@@ -13214,7 +13214,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348">
-        <v>1702429200</v>
+        <v>1702418400</v>
       </c>
       <c r="B348" t="s">
         <v>299</v>
@@ -13243,7 +13243,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349">
-        <v>1702432800</v>
+        <v>1702422000</v>
       </c>
       <c r="B349" t="s">
         <v>300</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350">
-        <v>1702436400</v>
+        <v>1702425600</v>
       </c>
       <c r="B350" t="s">
         <v>301</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351">
-        <v>1702440000</v>
+        <v>1702429200</v>
       </c>
       <c r="B351" t="s">
         <v>302</v>
@@ -13330,7 +13330,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352">
-        <v>1702443600</v>
+        <v>1702432800</v>
       </c>
       <c r="B352" t="s">
         <v>303</v>
@@ -13359,7 +13359,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353">
-        <v>1702447200</v>
+        <v>1702436400</v>
       </c>
       <c r="B353" t="s">
         <v>304</v>
@@ -13388,7 +13388,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354">
-        <v>1702450800</v>
+        <v>1702440000</v>
       </c>
       <c r="B354" t="s">
         <v>305</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355">
-        <v>1702454400</v>
+        <v>1702443600</v>
       </c>
       <c r="B355" t="s">
         <v>306</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356">
-        <v>1702458000</v>
+        <v>1702447200</v>
       </c>
       <c r="B356" t="s">
         <v>307</v>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357">
-        <v>1702461600</v>
+        <v>1702450800</v>
       </c>
       <c r="B357" t="s">
         <v>308</v>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358">
-        <v>1702465200</v>
+        <v>1702454400</v>
       </c>
       <c r="B358" t="s">
         <v>309</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359">
-        <v>1702468800</v>
+        <v>1702458000</v>
       </c>
       <c r="B359" t="s">
         <v>310</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360">
-        <v>1702472400</v>
+        <v>1702461600</v>
       </c>
       <c r="B360" t="s">
         <v>311</v>
@@ -13591,7 +13591,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361">
-        <v>1702476000</v>
+        <v>1702465200</v>
       </c>
       <c r="B361" t="s">
         <v>312</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362">
-        <v>1702479600</v>
+        <v>1702468800</v>
       </c>
       <c r="B362" t="s">
         <v>313</v>
@@ -13649,7 +13649,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363">
-        <v>1702483200</v>
+        <v>1702472400</v>
       </c>
       <c r="B363" t="s">
         <v>314</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364">
-        <v>1702486800</v>
+        <v>1702476000</v>
       </c>
       <c r="B364" t="s">
         <v>315</v>
@@ -13707,7 +13707,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365">
-        <v>1702490400</v>
+        <v>1702479600</v>
       </c>
       <c r="B365" t="s">
         <v>316</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366">
-        <v>1702494000</v>
+        <v>1702483200</v>
       </c>
       <c r="B366" t="s">
         <v>317</v>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367">
-        <v>1702497600</v>
+        <v>1702486800</v>
       </c>
       <c r="B367" t="s">
         <v>318</v>
@@ -13794,7 +13794,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368">
-        <v>1702501200</v>
+        <v>1702490400</v>
       </c>
       <c r="B368" t="s">
         <v>319</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369">
-        <v>1702501200</v>
+        <v>1702490400</v>
       </c>
       <c r="B369" t="s">
         <v>319</v>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370">
-        <v>1702504800</v>
+        <v>1702494000</v>
       </c>
       <c r="B370" t="s">
         <v>320</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371">
-        <v>1702508400</v>
+        <v>1702497600</v>
       </c>
       <c r="B371" t="s">
         <v>321</v>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372">
-        <v>1702512000</v>
+        <v>1702501200</v>
       </c>
       <c r="B372" t="s">
         <v>322</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373">
-        <v>1702515600</v>
+        <v>1702504800</v>
       </c>
       <c r="B373" t="s">
         <v>323</v>
@@ -13968,7 +13968,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374">
-        <v>1702519200</v>
+        <v>1702508400</v>
       </c>
       <c r="B374" t="s">
         <v>324</v>
@@ -13997,7 +13997,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375">
-        <v>1702522800</v>
+        <v>1702512000</v>
       </c>
       <c r="B375" t="s">
         <v>325</v>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376">
-        <v>1702526400</v>
+        <v>1702515600</v>
       </c>
       <c r="B376" t="s">
         <v>326</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377">
-        <v>1702530000</v>
+        <v>1702519200</v>
       </c>
       <c r="B377" t="s">
         <v>327</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378">
-        <v>1702533600</v>
+        <v>1702522800</v>
       </c>
       <c r="B378" t="s">
         <v>328</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379">
-        <v>1702537200</v>
+        <v>1702526400</v>
       </c>
       <c r="B379" t="s">
         <v>329</v>
@@ -14142,7 +14142,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380">
-        <v>1702540800</v>
+        <v>1702530000</v>
       </c>
       <c r="B380" t="s">
         <v>330</v>
@@ -14171,7 +14171,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381">
-        <v>1702544400</v>
+        <v>1702533600</v>
       </c>
       <c r="B381" t="s">
         <v>331</v>
@@ -14200,7 +14200,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382">
-        <v>1702548000</v>
+        <v>1702537200</v>
       </c>
       <c r="B382" t="s">
         <v>332</v>
@@ -14229,7 +14229,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383">
-        <v>1702551600</v>
+        <v>1702540800</v>
       </c>
       <c r="B383" t="s">
         <v>333</v>
@@ -14258,7 +14258,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384">
-        <v>1702555200</v>
+        <v>1702544400</v>
       </c>
       <c r="B384" t="s">
         <v>334</v>
@@ -14287,7 +14287,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385">
-        <v>1702558800</v>
+        <v>1702548000</v>
       </c>
       <c r="B385" t="s">
         <v>335</v>
@@ -14316,7 +14316,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386">
-        <v>1702562400</v>
+        <v>1702551600</v>
       </c>
       <c r="B386" t="s">
         <v>336</v>
@@ -14345,7 +14345,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387">
-        <v>1702566000</v>
+        <v>1702555200</v>
       </c>
       <c r="B387" t="s">
         <v>337</v>
@@ -14374,7 +14374,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388">
-        <v>1702569600</v>
+        <v>1702558800</v>
       </c>
       <c r="B388" t="s">
         <v>338</v>
@@ -14403,7 +14403,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389">
-        <v>1702573200</v>
+        <v>1702562400</v>
       </c>
       <c r="B389" t="s">
         <v>339</v>
@@ -14432,7 +14432,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390">
-        <v>1702576800</v>
+        <v>1702566000</v>
       </c>
       <c r="B390" t="s">
         <v>340</v>
@@ -14461,7 +14461,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391">
-        <v>1702580400</v>
+        <v>1702569600</v>
       </c>
       <c r="B391" t="s">
         <v>341</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392">
-        <v>1702584000</v>
+        <v>1702573200</v>
       </c>
       <c r="B392" t="s">
         <v>342</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393">
-        <v>1702587600</v>
+        <v>1702576800</v>
       </c>
       <c r="B393" t="s">
         <v>343</v>
@@ -14548,7 +14548,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394">
-        <v>1702591200</v>
+        <v>1702580400</v>
       </c>
       <c r="B394" t="s">
         <v>344</v>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395">
-        <v>1702594800</v>
+        <v>1702584000</v>
       </c>
       <c r="B395" t="s">
         <v>345</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396">
-        <v>1702598400</v>
+        <v>1702587600</v>
       </c>
       <c r="B396" t="s">
         <v>346</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397">
-        <v>1702602000</v>
+        <v>1702591200</v>
       </c>
       <c r="B397" t="s">
         <v>347</v>
@@ -14664,7 +14664,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398">
-        <v>1702605600</v>
+        <v>1702594800</v>
       </c>
       <c r="B398" t="s">
         <v>348</v>
@@ -14693,7 +14693,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399">
-        <v>1702609200</v>
+        <v>1702598400</v>
       </c>
       <c r="B399" t="s">
         <v>349</v>
@@ -14722,7 +14722,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400">
-        <v>1702612800</v>
+        <v>1702602000</v>
       </c>
       <c r="B400" t="s">
         <v>350</v>
@@ -14751,7 +14751,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401">
-        <v>1702616400</v>
+        <v>1702605600</v>
       </c>
       <c r="B401" t="s">
         <v>351</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402">
-        <v>1702620000</v>
+        <v>1702609200</v>
       </c>
       <c r="B402" t="s">
         <v>352</v>
@@ -14809,7 +14809,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403">
-        <v>1702623600</v>
+        <v>1702612800</v>
       </c>
       <c r="B403" t="s">
         <v>353</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404">
-        <v>1702627200</v>
+        <v>1702616400</v>
       </c>
       <c r="B404" t="s">
         <v>354</v>
@@ -14867,7 +14867,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405">
-        <v>1702630800</v>
+        <v>1702620000</v>
       </c>
       <c r="B405" t="s">
         <v>355</v>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406">
-        <v>1702634400</v>
+        <v>1702623600</v>
       </c>
       <c r="B406" t="s">
         <v>356</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407">
-        <v>1702638000</v>
+        <v>1702627200</v>
       </c>
       <c r="B407" t="s">
         <v>357</v>
@@ -14954,7 +14954,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>1702641600</v>
+        <v>1702630800</v>
       </c>
       <c r="B408" t="s">
         <v>358</v>
@@ -14983,7 +14983,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409">
-        <v>1702645200</v>
+        <v>1702634400</v>
       </c>
       <c r="B409" t="s">
         <v>359</v>
@@ -15012,7 +15012,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410">
-        <v>1702648800</v>
+        <v>1702638000</v>
       </c>
       <c r="B410" t="s">
         <v>360</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411">
-        <v>1702652400</v>
+        <v>1702641600</v>
       </c>
       <c r="B411" t="s">
         <v>361</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412">
-        <v>1702656000</v>
+        <v>1702645200</v>
       </c>
       <c r="B412" t="s">
         <v>362</v>
@@ -15099,7 +15099,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413">
-        <v>1702659600</v>
+        <v>1702648800</v>
       </c>
       <c r="B413" t="s">
         <v>363</v>
@@ -15128,7 +15128,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414">
-        <v>1702663200</v>
+        <v>1702652400</v>
       </c>
       <c r="B414" t="s">
         <v>364</v>
@@ -15157,7 +15157,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415">
-        <v>1702666800</v>
+        <v>1702656000</v>
       </c>
       <c r="B415" t="s">
         <v>365</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416">
-        <v>1702670400</v>
+        <v>1702659600</v>
       </c>
       <c r="B416" t="s">
         <v>366</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417">
-        <v>1702674000</v>
+        <v>1702663200</v>
       </c>
       <c r="B417" t="s">
         <v>367</v>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418">
-        <v>1702677600</v>
+        <v>1702666800</v>
       </c>
       <c r="B418" t="s">
         <v>368</v>
@@ -15273,7 +15273,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419">
-        <v>1702681200</v>
+        <v>1702670400</v>
       </c>
       <c r="B419" t="s">
         <v>369</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420">
-        <v>1702684800</v>
+        <v>1702674000</v>
       </c>
       <c r="B420" t="s">
         <v>370</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421">
-        <v>1702688400</v>
+        <v>1702677600</v>
       </c>
       <c r="B421" t="s">
         <v>371</v>
@@ -15360,7 +15360,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422">
-        <v>1702692000</v>
+        <v>1702681200</v>
       </c>
       <c r="B422" t="s">
         <v>372</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423">
-        <v>1702695600</v>
+        <v>1702684800</v>
       </c>
       <c r="B423" t="s">
         <v>373</v>
@@ -15418,7 +15418,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424">
-        <v>1702699200</v>
+        <v>1702688400</v>
       </c>
       <c r="B424" t="s">
         <v>374</v>
@@ -15447,7 +15447,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425">
-        <v>1702702800</v>
+        <v>1702692000</v>
       </c>
       <c r="B425" t="s">
         <v>375</v>
@@ -15476,7 +15476,7 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426">
-        <v>1702706400</v>
+        <v>1702695600</v>
       </c>
       <c r="B426" t="s">
         <v>376</v>
@@ -15505,7 +15505,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427">
-        <v>1702710000</v>
+        <v>1702699200</v>
       </c>
       <c r="B427" t="s">
         <v>377</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428">
-        <v>1702713600</v>
+        <v>1702702800</v>
       </c>
       <c r="B428" t="s">
         <v>378</v>
@@ -15563,7 +15563,7 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429">
-        <v>1702717200</v>
+        <v>1702706400</v>
       </c>
       <c r="B429" t="s">
         <v>379</v>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430">
-        <v>1702720800</v>
+        <v>1702710000</v>
       </c>
       <c r="B430" t="s">
         <v>380</v>
@@ -15621,7 +15621,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431">
-        <v>1702724400</v>
+        <v>1702713600</v>
       </c>
       <c r="B431" t="s">
         <v>381</v>
@@ -15650,7 +15650,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432">
-        <v>1702728000</v>
+        <v>1702717200</v>
       </c>
       <c r="B432" t="s">
         <v>382</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433">
-        <v>1702731600</v>
+        <v>1702720800</v>
       </c>
       <c r="B433" t="s">
         <v>383</v>
@@ -15708,7 +15708,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434">
-        <v>1702735200</v>
+        <v>1702724400</v>
       </c>
       <c r="B434" t="s">
         <v>384</v>
@@ -15737,7 +15737,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435">
-        <v>1702738800</v>
+        <v>1702728000</v>
       </c>
       <c r="B435" t="s">
         <v>385</v>
@@ -15766,7 +15766,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436">
-        <v>1702742400</v>
+        <v>1702731600</v>
       </c>
       <c r="B436" t="s">
         <v>386</v>
@@ -15795,7 +15795,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437">
-        <v>1702746000</v>
+        <v>1702735200</v>
       </c>
       <c r="B437" t="s">
         <v>387</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>1702749600</v>
+        <v>1702738800</v>
       </c>
       <c r="B438" t="s">
         <v>388</v>
@@ -15853,7 +15853,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439">
-        <v>1702753200</v>
+        <v>1702742400</v>
       </c>
       <c r="B439" t="s">
         <v>389</v>
@@ -15882,7 +15882,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440">
-        <v>1702756800</v>
+        <v>1702746000</v>
       </c>
       <c r="B440" t="s">
         <v>390</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441">
-        <v>1702760400</v>
+        <v>1702749600</v>
       </c>
       <c r="B441" t="s">
         <v>391</v>
@@ -15940,7 +15940,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442">
-        <v>1702764000</v>
+        <v>1702753200</v>
       </c>
       <c r="B442" t="s">
         <v>392</v>
@@ -15969,7 +15969,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443">
-        <v>1702767600</v>
+        <v>1702756800</v>
       </c>
       <c r="B443" t="s">
         <v>393</v>
@@ -15998,7 +15998,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444">
-        <v>1702771200</v>
+        <v>1702760400</v>
       </c>
       <c r="B444" t="s">
         <v>394</v>
@@ -16027,7 +16027,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445">
-        <v>1702774800</v>
+        <v>1702764000</v>
       </c>
       <c r="B445" t="s">
         <v>395</v>
@@ -16056,7 +16056,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446">
-        <v>1702778400</v>
+        <v>1702767600</v>
       </c>
       <c r="B446" t="s">
         <v>396</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447">
-        <v>1702782000</v>
+        <v>1702771200</v>
       </c>
       <c r="B447" t="s">
         <v>397</v>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448">
-        <v>1702785600</v>
+        <v>1702774800</v>
       </c>
       <c r="B448" t="s">
         <v>398</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449">
-        <v>1702789200</v>
+        <v>1702778400</v>
       </c>
       <c r="B449" t="s">
         <v>399</v>
@@ -16172,7 +16172,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450">
-        <v>1702792800</v>
+        <v>1702782000</v>
       </c>
       <c r="B450" t="s">
         <v>400</v>
@@ -16201,7 +16201,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451">
-        <v>1702796400</v>
+        <v>1702785600</v>
       </c>
       <c r="B451" t="s">
         <v>401</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452">
-        <v>1702800000</v>
+        <v>1702789200</v>
       </c>
       <c r="B452" t="s">
         <v>402</v>
@@ -16259,7 +16259,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453">
-        <v>1702803600</v>
+        <v>1702792800</v>
       </c>
       <c r="B453" t="s">
         <v>403</v>
@@ -16288,7 +16288,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454">
-        <v>1702807200</v>
+        <v>1702796400</v>
       </c>
       <c r="B454" t="s">
         <v>404</v>
@@ -16317,7 +16317,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455">
-        <v>1702810800</v>
+        <v>1702800000</v>
       </c>
       <c r="B455" t="s">
         <v>405</v>
@@ -16346,7 +16346,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456">
-        <v>1702814400</v>
+        <v>1702803600</v>
       </c>
       <c r="B456" t="s">
         <v>406</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457">
-        <v>1702818000</v>
+        <v>1702807200</v>
       </c>
       <c r="B457" t="s">
         <v>407</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458">
-        <v>1702821600</v>
+        <v>1702810800</v>
       </c>
       <c r="B458" t="s">
         <v>408</v>
@@ -16433,7 +16433,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459">
-        <v>1702825200</v>
+        <v>1702814400</v>
       </c>
       <c r="B459" t="s">
         <v>409</v>
@@ -16462,7 +16462,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460">
-        <v>1702828800</v>
+        <v>1702818000</v>
       </c>
       <c r="B460" t="s">
         <v>410</v>
@@ -16491,7 +16491,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461">
-        <v>1702832400</v>
+        <v>1702821600</v>
       </c>
       <c r="B461" t="s">
         <v>411</v>
@@ -16520,7 +16520,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462">
-        <v>1702836000</v>
+        <v>1702825200</v>
       </c>
       <c r="B462" t="s">
         <v>412</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463">
-        <v>1702839600</v>
+        <v>1702828800</v>
       </c>
       <c r="B463" t="s">
         <v>413</v>
@@ -16578,7 +16578,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464">
-        <v>1702843200</v>
+        <v>1702832400</v>
       </c>
       <c r="B464" t="s">
         <v>414</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465">
-        <v>1702846800</v>
+        <v>1702836000</v>
       </c>
       <c r="B465" t="s">
         <v>415</v>
@@ -16636,7 +16636,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>1702850400</v>
+        <v>1702839600</v>
       </c>
       <c r="B466" t="s">
         <v>416</v>
@@ -16665,7 +16665,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>1702854000</v>
+        <v>1702843200</v>
       </c>
       <c r="B467" t="s">
         <v>417</v>
@@ -16694,7 +16694,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468">
-        <v>1702857600</v>
+        <v>1702846800</v>
       </c>
       <c r="B468" t="s">
         <v>418</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469">
-        <v>1702861200</v>
+        <v>1702850400</v>
       </c>
       <c r="B469" t="s">
         <v>419</v>
@@ -16752,7 +16752,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470">
-        <v>1702864800</v>
+        <v>1702854000</v>
       </c>
       <c r="B470" t="s">
         <v>420</v>
@@ -16781,7 +16781,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471">
-        <v>1702868400</v>
+        <v>1702857600</v>
       </c>
       <c r="B471" t="s">
         <v>421</v>
@@ -16810,7 +16810,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472">
-        <v>1702872000</v>
+        <v>1702861200</v>
       </c>
       <c r="B472" t="s">
         <v>422</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473">
-        <v>1702875600</v>
+        <v>1702864800</v>
       </c>
       <c r="B473" t="s">
         <v>423</v>
@@ -16868,7 +16868,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474">
-        <v>1702879200</v>
+        <v>1702868400</v>
       </c>
       <c r="B474" t="s">
         <v>424</v>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475">
-        <v>1702882800</v>
+        <v>1702872000</v>
       </c>
       <c r="B475" t="s">
         <v>425</v>
@@ -16926,7 +16926,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476">
-        <v>1702886400</v>
+        <v>1702875600</v>
       </c>
       <c r="B476" t="s">
         <v>426</v>
@@ -16955,7 +16955,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477">
-        <v>1702890000</v>
+        <v>1702879200</v>
       </c>
       <c r="B477" t="s">
         <v>427</v>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478">
-        <v>1702893600</v>
+        <v>1702882800</v>
       </c>
       <c r="B478" t="s">
         <v>428</v>
@@ -17013,7 +17013,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479">
-        <v>1702897200</v>
+        <v>1702886400</v>
       </c>
       <c r="B479" t="s">
         <v>429</v>
@@ -17042,7 +17042,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480">
-        <v>1702900800</v>
+        <v>1702890000</v>
       </c>
       <c r="B480" t="s">
         <v>430</v>
@@ -17071,7 +17071,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481">
-        <v>1702904400</v>
+        <v>1702893600</v>
       </c>
       <c r="B481" t="s">
         <v>431</v>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482">
-        <v>1702908000</v>
+        <v>1702897200</v>
       </c>
       <c r="B482" t="s">
         <v>432</v>
@@ -17129,7 +17129,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483">
-        <v>1702911600</v>
+        <v>1702900800</v>
       </c>
       <c r="B483" t="s">
         <v>433</v>
@@ -17158,7 +17158,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484">
-        <v>1702915200</v>
+        <v>1702904400</v>
       </c>
       <c r="B484" t="s">
         <v>434</v>
@@ -17187,7 +17187,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485">
-        <v>1702918800</v>
+        <v>1702908000</v>
       </c>
       <c r="B485" t="s">
         <v>435</v>
@@ -17216,7 +17216,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486">
-        <v>1702922400</v>
+        <v>1702911600</v>
       </c>
       <c r="B486" t="s">
         <v>436</v>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487">
-        <v>1702926000</v>
+        <v>1702915200</v>
       </c>
       <c r="B487" t="s">
         <v>437</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488">
-        <v>1702929600</v>
+        <v>1702918800</v>
       </c>
       <c r="B488" t="s">
         <v>438</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489">
-        <v>1702933200</v>
+        <v>1702922400</v>
       </c>
       <c r="B489" t="s">
         <v>439</v>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490">
-        <v>1702936800</v>
+        <v>1702926000</v>
       </c>
       <c r="B490" t="s">
         <v>440</v>
@@ -17361,7 +17361,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491">
-        <v>1702940400</v>
+        <v>1702929600</v>
       </c>
       <c r="B491" t="s">
         <v>441</v>
@@ -17390,7 +17390,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492">
-        <v>1702944000</v>
+        <v>1702933200</v>
       </c>
       <c r="B492" t="s">
         <v>442</v>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493">
-        <v>1702947600</v>
+        <v>1702936800</v>
       </c>
       <c r="B493" t="s">
         <v>443</v>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494">
-        <v>1702947600</v>
+        <v>1702936800</v>
       </c>
       <c r="B494" t="s">
         <v>443</v>
@@ -17477,7 +17477,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495">
-        <v>1702951200</v>
+        <v>1702940400</v>
       </c>
       <c r="B495" t="s">
         <v>444</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496">
-        <v>1702954800</v>
+        <v>1702944000</v>
       </c>
       <c r="B496" t="s">
         <v>445</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>1702958400</v>
+        <v>1702947600</v>
       </c>
       <c r="B497" t="s">
         <v>446</v>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>1702962000</v>
+        <v>1702951200</v>
       </c>
       <c r="B498" t="s">
         <v>447</v>
@@ -17593,7 +17593,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499">
-        <v>1702965600</v>
+        <v>1702954800</v>
       </c>
       <c r="B499" t="s">
         <v>448</v>
@@ -17622,7 +17622,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500">
-        <v>1702969200</v>
+        <v>1702958400</v>
       </c>
       <c r="B500" t="s">
         <v>449</v>
@@ -17651,7 +17651,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501">
-        <v>1702972800</v>
+        <v>1702962000</v>
       </c>
       <c r="B501" t="s">
         <v>450</v>
@@ -17680,7 +17680,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502">
-        <v>1702976400</v>
+        <v>1702965600</v>
       </c>
       <c r="B502" t="s">
         <v>451</v>
@@ -17709,7 +17709,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503">
-        <v>1702980000</v>
+        <v>1702969200</v>
       </c>
       <c r="B503" t="s">
         <v>452</v>
@@ -17738,7 +17738,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504">
-        <v>1702983600</v>
+        <v>1702972800</v>
       </c>
       <c r="B504" t="s">
         <v>453</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505">
-        <v>1702987200</v>
+        <v>1702976400</v>
       </c>
       <c r="B505" t="s">
         <v>454</v>
@@ -17796,7 +17796,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506">
-        <v>1702990800</v>
+        <v>1702980000</v>
       </c>
       <c r="B506" t="s">
         <v>455</v>
@@ -17828,7 +17828,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507">
-        <v>1702990800</v>
+        <v>1702980000</v>
       </c>
       <c r="B507" t="s">
         <v>455</v>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508">
-        <v>1702990800</v>
+        <v>1702980000</v>
       </c>
       <c r="B508" t="s">
         <v>455</v>
@@ -17886,7 +17886,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509">
-        <v>1702994400</v>
+        <v>1702983600</v>
       </c>
       <c r="B509" t="s">
         <v>456</v>
@@ -17918,7 +17918,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510">
-        <v>1702994400</v>
+        <v>1702983600</v>
       </c>
       <c r="B510" t="s">
         <v>456</v>
@@ -17947,7 +17947,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511">
-        <v>1702994400</v>
+        <v>1702983600</v>
       </c>
       <c r="B511" t="s">
         <v>456</v>
@@ -17976,7 +17976,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512">
-        <v>1702998000</v>
+        <v>1702987200</v>
       </c>
       <c r="B512" t="s">
         <v>457</v>
@@ -18005,7 +18005,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513">
-        <v>1702998000</v>
+        <v>1702987200</v>
       </c>
       <c r="B513" t="s">
         <v>457</v>
@@ -18037,7 +18037,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514">
-        <v>1703001600</v>
+        <v>1702990800</v>
       </c>
       <c r="B514" t="s">
         <v>458</v>
@@ -18066,7 +18066,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515">
-        <v>1703001600</v>
+        <v>1702990800</v>
       </c>
       <c r="B515" t="s">
         <v>458</v>
@@ -18098,7 +18098,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516">
-        <v>1703005200</v>
+        <v>1702994400</v>
       </c>
       <c r="B516" t="s">
         <v>459</v>
@@ -18130,7 +18130,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517">
-        <v>1703005200</v>
+        <v>1702994400</v>
       </c>
       <c r="B517" t="s">
         <v>459</v>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518">
-        <v>1703008800</v>
+        <v>1702998000</v>
       </c>
       <c r="B518" t="s">
         <v>460</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519">
-        <v>1703008800</v>
+        <v>1702998000</v>
       </c>
       <c r="B519" t="s">
         <v>460</v>
@@ -18220,7 +18220,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520">
-        <v>1703012400</v>
+        <v>1703001600</v>
       </c>
       <c r="B520" t="s">
         <v>461</v>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521">
-        <v>1703012400</v>
+        <v>1703001600</v>
       </c>
       <c r="B521" t="s">
         <v>461</v>
@@ -18281,7 +18281,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522">
-        <v>1703016000</v>
+        <v>1703005200</v>
       </c>
       <c r="B522" t="s">
         <v>462</v>
@@ -18313,7 +18313,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523">
-        <v>1703016000</v>
+        <v>1703005200</v>
       </c>
       <c r="B523" t="s">
         <v>462</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524">
-        <v>1703019600</v>
+        <v>1703008800</v>
       </c>
       <c r="B524" t="s">
         <v>463</v>
@@ -18371,7 +18371,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525">
-        <v>1703019600</v>
+        <v>1703008800</v>
       </c>
       <c r="B525" t="s">
         <v>463</v>
@@ -18403,7 +18403,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526">
-        <v>1703023200</v>
+        <v>1703012400</v>
       </c>
       <c r="B526" t="s">
         <v>464</v>
@@ -18435,7 +18435,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>1703023200</v>
+        <v>1703012400</v>
       </c>
       <c r="B527" t="s">
         <v>464</v>
@@ -18464,7 +18464,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>1703026800</v>
+        <v>1703016000</v>
       </c>
       <c r="B528" t="s">
         <v>465</v>
@@ -18493,7 +18493,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529">
-        <v>1703026800</v>
+        <v>1703016000</v>
       </c>
       <c r="B529" t="s">
         <v>465</v>
@@ -18525,7 +18525,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530">
-        <v>1703030400</v>
+        <v>1703019600</v>
       </c>
       <c r="B530" t="s">
         <v>466</v>
@@ -18557,7 +18557,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531">
-        <v>1703030400</v>
+        <v>1703019600</v>
       </c>
       <c r="B531" t="s">
         <v>466</v>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532">
-        <v>1703034000</v>
+        <v>1703023200</v>
       </c>
       <c r="B532" t="s">
         <v>467</v>
@@ -18618,7 +18618,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533">
-        <v>1703034000</v>
+        <v>1703023200</v>
       </c>
       <c r="B533" t="s">
         <v>467</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534">
-        <v>1703037600</v>
+        <v>1703026800</v>
       </c>
       <c r="B534" t="s">
         <v>468</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535">
-        <v>1703037600</v>
+        <v>1703026800</v>
       </c>
       <c r="B535" t="s">
         <v>468</v>
@@ -18708,7 +18708,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536">
-        <v>1703041200</v>
+        <v>1703030400</v>
       </c>
       <c r="B536" t="s">
         <v>469</v>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537">
-        <v>1703041200</v>
+        <v>1703030400</v>
       </c>
       <c r="B537" t="s">
         <v>469</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538">
-        <v>1703044800</v>
+        <v>1703034000</v>
       </c>
       <c r="B538" t="s">
         <v>470</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539">
-        <v>1703044800</v>
+        <v>1703034000</v>
       </c>
       <c r="B539" t="s">
         <v>470</v>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540">
-        <v>1703048400</v>
+        <v>1703037600</v>
       </c>
       <c r="B540" t="s">
         <v>471</v>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541">
-        <v>1703048400</v>
+        <v>1703037600</v>
       </c>
       <c r="B541" t="s">
         <v>471</v>
@@ -18891,7 +18891,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542">
-        <v>1703052000</v>
+        <v>1703041200</v>
       </c>
       <c r="B542" t="s">
         <v>472</v>
@@ -18923,7 +18923,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543">
-        <v>1703052000</v>
+        <v>1703041200</v>
       </c>
       <c r="B543" t="s">
         <v>472</v>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544">
-        <v>1703055600</v>
+        <v>1703044800</v>
       </c>
       <c r="B544" t="s">
         <v>473</v>
@@ -18984,7 +18984,7 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545">
-        <v>1703055600</v>
+        <v>1703044800</v>
       </c>
       <c r="B545" t="s">
         <v>473</v>
@@ -19013,7 +19013,7 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546">
-        <v>1703059200</v>
+        <v>1703048400</v>
       </c>
       <c r="B546" t="s">
         <v>474</v>
@@ -19045,7 +19045,7 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547">
-        <v>1703059200</v>
+        <v>1703048400</v>
       </c>
       <c r="B547" t="s">
         <v>474</v>
@@ -19074,7 +19074,7 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548">
-        <v>1703062800</v>
+        <v>1703052000</v>
       </c>
       <c r="B548" t="s">
         <v>475</v>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549">
-        <v>1703062800</v>
+        <v>1703052000</v>
       </c>
       <c r="B549" t="s">
         <v>475</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="550" spans="1:10">
       <c r="A550">
-        <v>1703066400</v>
+        <v>1703055600</v>
       </c>
       <c r="B550" t="s">
         <v>476</v>
@@ -19164,7 +19164,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551">
-        <v>1703066400</v>
+        <v>1703055600</v>
       </c>
       <c r="B551" t="s">
         <v>476</v>
@@ -19196,7 +19196,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552">
-        <v>1703070000</v>
+        <v>1703059200</v>
       </c>
       <c r="B552" t="s">
         <v>477</v>
@@ -19225,7 +19225,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553">
-        <v>1703070000</v>
+        <v>1703059200</v>
       </c>
       <c r="B553" t="s">
         <v>477</v>
@@ -19257,7 +19257,7 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554">
-        <v>1703073600</v>
+        <v>1703062800</v>
       </c>
       <c r="B554" t="s">
         <v>478</v>
@@ -19289,7 +19289,7 @@
     </row>
     <row r="555" spans="1:10">
       <c r="A555">
-        <v>1703073600</v>
+        <v>1703062800</v>
       </c>
       <c r="B555" t="s">
         <v>478</v>
@@ -19318,7 +19318,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556">
-        <v>1703077200</v>
+        <v>1703066400</v>
       </c>
       <c r="B556" t="s">
         <v>479</v>
@@ -19350,7 +19350,7 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557">
-        <v>1703077200</v>
+        <v>1703066400</v>
       </c>
       <c r="B557" t="s">
         <v>479</v>
@@ -19379,7 +19379,7 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558">
-        <v>1703080800</v>
+        <v>1703070000</v>
       </c>
       <c r="B558" t="s">
         <v>480</v>
@@ -19411,7 +19411,7 @@
     </row>
     <row r="559" spans="1:10">
       <c r="A559">
-        <v>1703080800</v>
+        <v>1703070000</v>
       </c>
       <c r="B559" t="s">
         <v>480</v>
@@ -19440,7 +19440,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560">
-        <v>1703084400</v>
+        <v>1703073600</v>
       </c>
       <c r="B560" t="s">
         <v>481</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561">
-        <v>1703084400</v>
+        <v>1703073600</v>
       </c>
       <c r="B561" t="s">
         <v>481</v>
@@ -19501,7 +19501,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562">
-        <v>1703088000</v>
+        <v>1703077200</v>
       </c>
       <c r="B562" t="s">
         <v>482</v>
@@ -19530,7 +19530,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563">
-        <v>1703088000</v>
+        <v>1703077200</v>
       </c>
       <c r="B563" t="s">
         <v>482</v>
@@ -19562,7 +19562,7 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564">
-        <v>1703091600</v>
+        <v>1703080800</v>
       </c>
       <c r="B564" t="s">
         <v>483</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565">
-        <v>1703091600</v>
+        <v>1703080800</v>
       </c>
       <c r="B565" t="s">
         <v>483</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566">
-        <v>1703095200</v>
+        <v>1703084400</v>
       </c>
       <c r="B566" t="s">
         <v>484</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567">
-        <v>1703095200</v>
+        <v>1703084400</v>
       </c>
       <c r="B567" t="s">
         <v>484</v>
@@ -19684,7 +19684,7 @@
     </row>
     <row r="568" spans="1:10">
       <c r="A568">
-        <v>1703098800</v>
+        <v>1703088000</v>
       </c>
       <c r="B568" t="s">
         <v>485</v>
@@ -19716,7 +19716,7 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569">
-        <v>1703098800</v>
+        <v>1703088000</v>
       </c>
       <c r="B569" t="s">
         <v>485</v>
@@ -19745,7 +19745,7 @@
     </row>
     <row r="570" spans="1:10">
       <c r="A570">
-        <v>1703102400</v>
+        <v>1703091600</v>
       </c>
       <c r="B570" t="s">
         <v>486</v>
@@ -19777,7 +19777,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571">
-        <v>1703102400</v>
+        <v>1703091600</v>
       </c>
       <c r="B571" t="s">
         <v>486</v>
@@ -19806,7 +19806,7 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572">
-        <v>1703106000</v>
+        <v>1703095200</v>
       </c>
       <c r="B572" t="s">
         <v>487</v>
@@ -19835,7 +19835,7 @@
     </row>
     <row r="573" spans="1:10">
       <c r="A573">
-        <v>1703106000</v>
+        <v>1703095200</v>
       </c>
       <c r="B573" t="s">
         <v>487</v>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574">
-        <v>1703109600</v>
+        <v>1703098800</v>
       </c>
       <c r="B574" t="s">
         <v>488</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="575" spans="1:10">
       <c r="A575">
-        <v>1703109600</v>
+        <v>1703098800</v>
       </c>
       <c r="B575" t="s">
         <v>488</v>
@@ -19928,7 +19928,7 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576">
-        <v>1703113200</v>
+        <v>1703102400</v>
       </c>
       <c r="B576" t="s">
         <v>489</v>
@@ -19957,7 +19957,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577">
-        <v>1703113200</v>
+        <v>1703102400</v>
       </c>
       <c r="B577" t="s">
         <v>489</v>
@@ -19989,7 +19989,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578">
-        <v>1703116800</v>
+        <v>1703106000</v>
       </c>
       <c r="B578" t="s">
         <v>490</v>
@@ -20018,7 +20018,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579">
-        <v>1703116800</v>
+        <v>1703106000</v>
       </c>
       <c r="B579" t="s">
         <v>490</v>
@@ -20050,7 +20050,7 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580">
-        <v>1703120400</v>
+        <v>1703109600</v>
       </c>
       <c r="B580" t="s">
         <v>491</v>
@@ -20079,7 +20079,7 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581">
-        <v>1703120400</v>
+        <v>1703109600</v>
       </c>
       <c r="B581" t="s">
         <v>491</v>
@@ -20111,7 +20111,7 @@
     </row>
     <row r="582" spans="1:10">
       <c r="A582">
-        <v>1703124000</v>
+        <v>1703113200</v>
       </c>
       <c r="B582" t="s">
         <v>492</v>
@@ -20140,7 +20140,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583">
-        <v>1703124000</v>
+        <v>1703113200</v>
       </c>
       <c r="B583" t="s">
         <v>492</v>
@@ -20172,7 +20172,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584">
-        <v>1703127600</v>
+        <v>1703116800</v>
       </c>
       <c r="B584" t="s">
         <v>493</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585">
-        <v>1703127600</v>
+        <v>1703116800</v>
       </c>
       <c r="B585" t="s">
         <v>493</v>
@@ -20233,7 +20233,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586">
-        <v>1703131200</v>
+        <v>1703120400</v>
       </c>
       <c r="B586" t="s">
         <v>494</v>
@@ -20265,7 +20265,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587">
-        <v>1703131200</v>
+        <v>1703120400</v>
       </c>
       <c r="B587" t="s">
         <v>494</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588">
-        <v>1703134800</v>
+        <v>1703124000</v>
       </c>
       <c r="B588" t="s">
         <v>495</v>
@@ -20326,7 +20326,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589">
-        <v>1703134800</v>
+        <v>1703124000</v>
       </c>
       <c r="B589" t="s">
         <v>495</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590">
-        <v>1703138400</v>
+        <v>1703127600</v>
       </c>
       <c r="B590" t="s">
         <v>496</v>
@@ -20384,7 +20384,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591">
-        <v>1703138400</v>
+        <v>1703127600</v>
       </c>
       <c r="B591" t="s">
         <v>496</v>
@@ -20416,7 +20416,7 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592">
-        <v>1703142000</v>
+        <v>1703131200</v>
       </c>
       <c r="B592" t="s">
         <v>497</v>
@@ -20448,7 +20448,7 @@
     </row>
     <row r="593" spans="1:10">
       <c r="A593">
-        <v>1703142000</v>
+        <v>1703131200</v>
       </c>
       <c r="B593" t="s">
         <v>497</v>
@@ -20477,7 +20477,7 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594">
-        <v>1703145600</v>
+        <v>1703134800</v>
       </c>
       <c r="B594" t="s">
         <v>498</v>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="595" spans="1:10">
       <c r="A595">
-        <v>1703145600</v>
+        <v>1703134800</v>
       </c>
       <c r="B595" t="s">
         <v>498</v>
@@ -20538,7 +20538,7 @@
     </row>
     <row r="596" spans="1:10">
       <c r="A596">
-        <v>1703149200</v>
+        <v>1703138400</v>
       </c>
       <c r="B596" t="s">
         <v>499</v>
@@ -20570,7 +20570,7 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597">
-        <v>1703149200</v>
+        <v>1703138400</v>
       </c>
       <c r="B597" t="s">
         <v>499</v>
@@ -20599,7 +20599,7 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598">
-        <v>1703152800</v>
+        <v>1703142000</v>
       </c>
       <c r="B598" t="s">
         <v>500</v>
@@ -20628,7 +20628,7 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599">
-        <v>1703152800</v>
+        <v>1703142000</v>
       </c>
       <c r="B599" t="s">
         <v>500</v>
@@ -20660,7 +20660,7 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600">
-        <v>1703156400</v>
+        <v>1703145600</v>
       </c>
       <c r="B600" t="s">
         <v>501</v>
@@ -20689,7 +20689,7 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601">
-        <v>1703156400</v>
+        <v>1703145600</v>
       </c>
       <c r="B601" t="s">
         <v>501</v>
@@ -20721,7 +20721,7 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602">
-        <v>1703160000</v>
+        <v>1703149200</v>
       </c>
       <c r="B602" t="s">
         <v>502</v>
@@ -20753,7 +20753,7 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603">
-        <v>1703163600</v>
+        <v>1703152800</v>
       </c>
       <c r="B603" t="s">
         <v>503</v>
@@ -20785,7 +20785,7 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604">
-        <v>1703167200</v>
+        <v>1703156400</v>
       </c>
       <c r="B604" t="s">
         <v>504</v>
@@ -20817,7 +20817,7 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605">
-        <v>1703170800</v>
+        <v>1703160000</v>
       </c>
       <c r="B605" t="s">
         <v>505</v>
@@ -20849,7 +20849,7 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606">
-        <v>1703174400</v>
+        <v>1703163600</v>
       </c>
       <c r="B606" t="s">
         <v>506</v>
@@ -20881,7 +20881,7 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607">
-        <v>1703178000</v>
+        <v>1703167200</v>
       </c>
       <c r="B607" t="s">
         <v>507</v>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608">
-        <v>1703181600</v>
+        <v>1703170800</v>
       </c>
       <c r="B608" t="s">
         <v>508</v>
@@ -20945,7 +20945,7 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609">
-        <v>1703185200</v>
+        <v>1703174400</v>
       </c>
       <c r="B609" t="s">
         <v>509</v>
@@ -20977,7 +20977,7 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610">
-        <v>1703188800</v>
+        <v>1703178000</v>
       </c>
       <c r="B610" t="s">
         <v>510</v>
@@ -21009,7 +21009,7 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611">
-        <v>1703192400</v>
+        <v>1703181600</v>
       </c>
       <c r="B611" t="s">
         <v>511</v>
@@ -21041,7 +21041,7 @@
     </row>
     <row r="612" spans="1:10">
       <c r="A612">
-        <v>1703196000</v>
+        <v>1703185200</v>
       </c>
       <c r="B612" t="s">
         <v>512</v>
@@ -21073,7 +21073,7 @@
     </row>
     <row r="613" spans="1:10">
       <c r="A613">
-        <v>1703199600</v>
+        <v>1703188800</v>
       </c>
       <c r="B613" t="s">
         <v>513</v>
@@ -21105,7 +21105,7 @@
     </row>
     <row r="614" spans="1:10">
       <c r="A614">
-        <v>1703203200</v>
+        <v>1703192400</v>
       </c>
       <c r="B614" t="s">
         <v>514</v>
@@ -21137,7 +21137,7 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615">
-        <v>1703206800</v>
+        <v>1703196000</v>
       </c>
       <c r="B615" t="s">
         <v>515</v>
@@ -21169,7 +21169,7 @@
     </row>
     <row r="616" spans="1:10">
       <c r="A616">
-        <v>1703210400</v>
+        <v>1703199600</v>
       </c>
       <c r="B616" t="s">
         <v>516</v>
@@ -21201,7 +21201,7 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617">
-        <v>1703214000</v>
+        <v>1703203200</v>
       </c>
       <c r="B617" t="s">
         <v>517</v>
@@ -21233,7 +21233,7 @@
     </row>
     <row r="618" spans="1:10">
       <c r="A618">
-        <v>1703217600</v>
+        <v>1703206800</v>
       </c>
       <c r="B618" t="s">
         <v>518</v>
@@ -21265,7 +21265,7 @@
     </row>
     <row r="619" spans="1:10">
       <c r="A619">
-        <v>1703221200</v>
+        <v>1703210400</v>
       </c>
       <c r="B619" t="s">
         <v>519</v>
@@ -21297,7 +21297,7 @@
     </row>
     <row r="620" spans="1:10">
       <c r="A620">
-        <v>1703224800</v>
+        <v>1703214000</v>
       </c>
       <c r="B620" t="s">
         <v>520</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="621" spans="1:10">
       <c r="A621">
-        <v>1703228400</v>
+        <v>1703217600</v>
       </c>
       <c r="B621" t="s">
         <v>521</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="622" spans="1:10">
       <c r="A622">
-        <v>1703232000</v>
+        <v>1703221200</v>
       </c>
       <c r="B622" t="s">
         <v>522</v>
@@ -21393,7 +21393,7 @@
     </row>
     <row r="623" spans="1:10">
       <c r="A623">
-        <v>1703235600</v>
+        <v>1703224800</v>
       </c>
       <c r="B623" t="s">
         <v>523</v>
@@ -21425,7 +21425,7 @@
     </row>
     <row r="624" spans="1:10">
       <c r="A624">
-        <v>1703239200</v>
+        <v>1703228400</v>
       </c>
       <c r="B624" t="s">
         <v>524</v>
@@ -21457,7 +21457,7 @@
     </row>
     <row r="625" spans="1:10">
       <c r="A625">
-        <v>1703242800</v>
+        <v>1703232000</v>
       </c>
       <c r="B625" t="s">
         <v>525</v>
@@ -21489,7 +21489,7 @@
     </row>
     <row r="626" spans="1:10">
       <c r="A626">
-        <v>1703246400</v>
+        <v>1703235600</v>
       </c>
       <c r="B626" t="s">
         <v>526</v>
@@ -21521,7 +21521,7 @@
     </row>
     <row r="627" spans="1:10">
       <c r="A627">
-        <v>1703250000</v>
+        <v>1703239200</v>
       </c>
       <c r="B627" t="s">
         <v>527</v>
@@ -21553,7 +21553,7 @@
     </row>
     <row r="628" spans="1:10">
       <c r="A628">
-        <v>1703253600</v>
+        <v>1703242800</v>
       </c>
       <c r="B628" t="s">
         <v>528</v>
@@ -21585,7 +21585,7 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629">
-        <v>1703257200</v>
+        <v>1703246400</v>
       </c>
       <c r="B629" t="s">
         <v>529</v>
@@ -21617,7 +21617,7 @@
     </row>
     <row r="630" spans="1:10">
       <c r="A630">
-        <v>1703260800</v>
+        <v>1703250000</v>
       </c>
       <c r="B630" t="s">
         <v>530</v>
@@ -21649,7 +21649,7 @@
     </row>
     <row r="631" spans="1:10">
       <c r="A631">
-        <v>1703264400</v>
+        <v>1703253600</v>
       </c>
       <c r="B631" t="s">
         <v>531</v>
@@ -21681,7 +21681,7 @@
     </row>
     <row r="632" spans="1:10">
       <c r="A632">
-        <v>1703268000</v>
+        <v>1703257200</v>
       </c>
       <c r="B632" t="s">
         <v>532</v>
@@ -21713,7 +21713,7 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633">
-        <v>1703271600</v>
+        <v>1703260800</v>
       </c>
       <c r="B633" t="s">
         <v>533</v>
@@ -21745,7 +21745,7 @@
     </row>
     <row r="634" spans="1:10">
       <c r="A634">
-        <v>1703275200</v>
+        <v>1703264400</v>
       </c>
       <c r="B634" t="s">
         <v>534</v>
@@ -21777,7 +21777,7 @@
     </row>
     <row r="635" spans="1:10">
       <c r="A635">
-        <v>1703278800</v>
+        <v>1703268000</v>
       </c>
       <c r="B635" t="s">
         <v>535</v>
@@ -21809,7 +21809,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636">
-        <v>1703282400</v>
+        <v>1703271600</v>
       </c>
       <c r="B636" t="s">
         <v>536</v>
@@ -21841,7 +21841,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637">
-        <v>1703286000</v>
+        <v>1703275200</v>
       </c>
       <c r="B637" t="s">
         <v>537</v>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638">
-        <v>1703289600</v>
+        <v>1703278800</v>
       </c>
       <c r="B638" t="s">
         <v>538</v>
@@ -21905,7 +21905,7 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639">
-        <v>1703293200</v>
+        <v>1703282400</v>
       </c>
       <c r="B639" t="s">
         <v>539</v>
@@ -21937,7 +21937,7 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640">
-        <v>1703296800</v>
+        <v>1703286000</v>
       </c>
       <c r="B640" t="s">
         <v>540</v>
@@ -21969,7 +21969,7 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641">
-        <v>1703300400</v>
+        <v>1703289600</v>
       </c>
       <c r="B641" t="s">
         <v>541</v>
@@ -22001,7 +22001,7 @@
     </row>
     <row r="642" spans="1:10">
       <c r="A642">
-        <v>1703304000</v>
+        <v>1703293200</v>
       </c>
       <c r="B642" t="s">
         <v>542</v>
@@ -22033,7 +22033,7 @@
     </row>
     <row r="643" spans="1:10">
       <c r="A643">
-        <v>1703307600</v>
+        <v>1703296800</v>
       </c>
       <c r="B643" t="s">
         <v>543</v>
@@ -22065,7 +22065,7 @@
     </row>
     <row r="644" spans="1:10">
       <c r="A644">
-        <v>1703311200</v>
+        <v>1703300400</v>
       </c>
       <c r="B644" t="s">
         <v>544</v>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="645" spans="1:10">
       <c r="A645">
-        <v>1703314800</v>
+        <v>1703304000</v>
       </c>
       <c r="B645" t="s">
         <v>545</v>
@@ -22129,7 +22129,7 @@
     </row>
     <row r="646" spans="1:10">
       <c r="A646">
-        <v>1703318400</v>
+        <v>1703307600</v>
       </c>
       <c r="B646" t="s">
         <v>546</v>
@@ -22161,7 +22161,7 @@
     </row>
     <row r="647" spans="1:10">
       <c r="A647">
-        <v>1703322000</v>
+        <v>1703311200</v>
       </c>
       <c r="B647" t="s">
         <v>547</v>
@@ -22193,7 +22193,7 @@
     </row>
     <row r="648" spans="1:10">
       <c r="A648">
-        <v>1703325600</v>
+        <v>1703314800</v>
       </c>
       <c r="B648" t="s">
         <v>548</v>
@@ -22225,7 +22225,7 @@
     </row>
     <row r="649" spans="1:10">
       <c r="A649">
-        <v>1703329200</v>
+        <v>1703318400</v>
       </c>
       <c r="B649" t="s">
         <v>549</v>
@@ -22257,7 +22257,7 @@
     </row>
     <row r="650" spans="1:10">
       <c r="A650">
-        <v>1703332800</v>
+        <v>1703322000</v>
       </c>
       <c r="B650" t="s">
         <v>550</v>
@@ -22289,7 +22289,7 @@
     </row>
     <row r="651" spans="1:10">
       <c r="A651">
-        <v>1703336400</v>
+        <v>1703325600</v>
       </c>
       <c r="B651" t="s">
         <v>551</v>
@@ -22321,7 +22321,7 @@
     </row>
     <row r="652" spans="1:10">
       <c r="A652">
-        <v>1703340000</v>
+        <v>1703329200</v>
       </c>
       <c r="B652" t="s">
         <v>552</v>
@@ -22353,7 +22353,7 @@
     </row>
     <row r="653" spans="1:10">
       <c r="A653">
-        <v>1703343600</v>
+        <v>1703332800</v>
       </c>
       <c r="B653" t="s">
         <v>553</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="654" spans="1:10">
       <c r="A654">
-        <v>1703347200</v>
+        <v>1703336400</v>
       </c>
       <c r="B654" t="s">
         <v>554</v>
@@ -22417,7 +22417,7 @@
     </row>
     <row r="655" spans="1:10">
       <c r="A655">
-        <v>1703350800</v>
+        <v>1703340000</v>
       </c>
       <c r="B655" t="s">
         <v>555</v>
@@ -22449,7 +22449,7 @@
     </row>
     <row r="656" spans="1:10">
       <c r="A656">
-        <v>1703354400</v>
+        <v>1703343600</v>
       </c>
       <c r="B656" t="s">
         <v>556</v>
@@ -22481,7 +22481,7 @@
     </row>
     <row r="657" spans="1:10">
       <c r="A657">
-        <v>1703358000</v>
+        <v>1703347200</v>
       </c>
       <c r="B657" t="s">
         <v>557</v>
@@ -22513,7 +22513,7 @@
     </row>
     <row r="658" spans="1:10">
       <c r="A658">
-        <v>1703361600</v>
+        <v>1703350800</v>
       </c>
       <c r="B658" t="s">
         <v>558</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="659" spans="1:10">
       <c r="A659">
-        <v>1703365200</v>
+        <v>1703354400</v>
       </c>
       <c r="B659" t="s">
         <v>559</v>
@@ -22577,7 +22577,7 @@
     </row>
     <row r="660" spans="1:10">
       <c r="A660">
-        <v>1703368800</v>
+        <v>1703358000</v>
       </c>
       <c r="B660" t="s">
         <v>560</v>
@@ -22609,7 +22609,7 @@
     </row>
     <row r="661" spans="1:10">
       <c r="A661">
-        <v>1703372400</v>
+        <v>1703361600</v>
       </c>
       <c r="B661" t="s">
         <v>561</v>
@@ -22641,7 +22641,7 @@
     </row>
     <row r="662" spans="1:10">
       <c r="A662">
-        <v>1703376000</v>
+        <v>1703365200</v>
       </c>
       <c r="B662" t="s">
         <v>562</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="663" spans="1:10">
       <c r="A663">
-        <v>1703379600</v>
+        <v>1703368800</v>
       </c>
       <c r="B663" t="s">
         <v>563</v>
@@ -22705,7 +22705,7 @@
     </row>
     <row r="664" spans="1:10">
       <c r="A664">
-        <v>1703383200</v>
+        <v>1703372400</v>
       </c>
       <c r="B664" t="s">
         <v>564</v>
@@ -22737,7 +22737,7 @@
     </row>
     <row r="665" spans="1:10">
       <c r="A665">
-        <v>1703386800</v>
+        <v>1703376000</v>
       </c>
       <c r="B665" t="s">
         <v>565</v>
@@ -22769,7 +22769,7 @@
     </row>
     <row r="666" spans="1:10">
       <c r="A666">
-        <v>1703390400</v>
+        <v>1703379600</v>
       </c>
       <c r="B666" t="s">
         <v>566</v>
@@ -22801,7 +22801,7 @@
     </row>
     <row r="667" spans="1:10">
       <c r="A667">
-        <v>1703394000</v>
+        <v>1703383200</v>
       </c>
       <c r="B667" t="s">
         <v>567</v>
@@ -22833,7 +22833,7 @@
     </row>
     <row r="668" spans="1:10">
       <c r="A668">
-        <v>1703397600</v>
+        <v>1703386800</v>
       </c>
       <c r="B668" t="s">
         <v>568</v>
@@ -22865,7 +22865,7 @@
     </row>
     <row r="669" spans="1:10">
       <c r="A669">
-        <v>1703401200</v>
+        <v>1703390400</v>
       </c>
       <c r="B669" t="s">
         <v>569</v>
@@ -22897,7 +22897,7 @@
     </row>
     <row r="670" spans="1:10">
       <c r="A670">
-        <v>1703404800</v>
+        <v>1703394000</v>
       </c>
       <c r="B670" t="s">
         <v>570</v>
@@ -22929,7 +22929,7 @@
     </row>
     <row r="671" spans="1:10">
       <c r="A671">
-        <v>1703408400</v>
+        <v>1703397600</v>
       </c>
       <c r="B671" t="s">
         <v>571</v>
@@ -22961,7 +22961,7 @@
     </row>
     <row r="672" spans="1:10">
       <c r="A672">
-        <v>1703412000</v>
+        <v>1703401200</v>
       </c>
       <c r="B672" t="s">
         <v>572</v>
@@ -22993,7 +22993,7 @@
     </row>
     <row r="673" spans="1:10">
       <c r="A673">
-        <v>1703415600</v>
+        <v>1703404800</v>
       </c>
       <c r="B673" t="s">
         <v>573</v>
@@ -23025,7 +23025,7 @@
     </row>
     <row r="674" spans="1:10">
       <c r="A674">
-        <v>1703419200</v>
+        <v>1703408400</v>
       </c>
       <c r="B674" t="s">
         <v>574</v>
@@ -23057,7 +23057,7 @@
     </row>
     <row r="675" spans="1:10">
       <c r="A675">
-        <v>1703422800</v>
+        <v>1703412000</v>
       </c>
       <c r="B675" t="s">
         <v>575</v>
@@ -23089,7 +23089,7 @@
     </row>
     <row r="676" spans="1:10">
       <c r="A676">
-        <v>1703426400</v>
+        <v>1703415600</v>
       </c>
       <c r="B676" t="s">
         <v>576</v>
@@ -23121,7 +23121,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677">
-        <v>1703430000</v>
+        <v>1703419200</v>
       </c>
       <c r="B677" t="s">
         <v>577</v>
@@ -23153,7 +23153,7 @@
     </row>
     <row r="678" spans="1:10">
       <c r="A678">
-        <v>1703433600</v>
+        <v>1703422800</v>
       </c>
       <c r="B678" t="s">
         <v>578</v>
@@ -23185,7 +23185,7 @@
     </row>
     <row r="679" spans="1:10">
       <c r="A679">
-        <v>1703437200</v>
+        <v>1703426400</v>
       </c>
       <c r="B679" t="s">
         <v>579</v>
@@ -23217,7 +23217,7 @@
     </row>
     <row r="680" spans="1:10">
       <c r="A680">
-        <v>1703440800</v>
+        <v>1703430000</v>
       </c>
       <c r="B680" t="s">
         <v>580</v>
@@ -23249,7 +23249,7 @@
     </row>
     <row r="681" spans="1:10">
       <c r="A681">
-        <v>1703444400</v>
+        <v>1703433600</v>
       </c>
       <c r="B681" t="s">
         <v>581</v>
@@ -23281,7 +23281,7 @@
     </row>
     <row r="682" spans="1:10">
       <c r="A682">
-        <v>1703448000</v>
+        <v>1703437200</v>
       </c>
       <c r="B682" t="s">
         <v>582</v>
@@ -23313,7 +23313,7 @@
     </row>
     <row r="683" spans="1:10">
       <c r="A683">
-        <v>1703451600</v>
+        <v>1703440800</v>
       </c>
       <c r="B683" t="s">
         <v>583</v>
@@ -23345,7 +23345,7 @@
     </row>
     <row r="684" spans="1:10">
       <c r="A684">
-        <v>1703455200</v>
+        <v>1703444400</v>
       </c>
       <c r="B684" t="s">
         <v>584</v>
@@ -23377,7 +23377,7 @@
     </row>
     <row r="685" spans="1:10">
       <c r="A685">
-        <v>1703458800</v>
+        <v>1703448000</v>
       </c>
       <c r="B685" t="s">
         <v>585</v>
@@ -23409,7 +23409,7 @@
     </row>
     <row r="686" spans="1:10">
       <c r="A686">
-        <v>1703462400</v>
+        <v>1703451600</v>
       </c>
       <c r="B686" t="s">
         <v>586</v>
@@ -23441,7 +23441,7 @@
     </row>
     <row r="687" spans="1:10">
       <c r="A687">
-        <v>1703466000</v>
+        <v>1703455200</v>
       </c>
       <c r="B687" t="s">
         <v>587</v>
@@ -23473,7 +23473,7 @@
     </row>
     <row r="688" spans="1:10">
       <c r="A688">
-        <v>1703469600</v>
+        <v>1703458800</v>
       </c>
       <c r="B688" t="s">
         <v>588</v>
@@ -23505,7 +23505,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689">
-        <v>1703473200</v>
+        <v>1703462400</v>
       </c>
       <c r="B689" t="s">
         <v>589</v>
@@ -23537,7 +23537,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690">
-        <v>1703476800</v>
+        <v>1703466000</v>
       </c>
       <c r="B690" t="s">
         <v>590</v>
@@ -23569,7 +23569,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691">
-        <v>1703480400</v>
+        <v>1703469600</v>
       </c>
       <c r="B691" t="s">
         <v>591</v>
@@ -23601,7 +23601,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692">
-        <v>1703484000</v>
+        <v>1703473200</v>
       </c>
       <c r="B692" t="s">
         <v>592</v>
@@ -23633,7 +23633,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693">
-        <v>1703487600</v>
+        <v>1703476800</v>
       </c>
       <c r="B693" t="s">
         <v>593</v>
@@ -23665,7 +23665,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694">
-        <v>1703491200</v>
+        <v>1703480400</v>
       </c>
       <c r="B694" t="s">
         <v>594</v>
@@ -23697,7 +23697,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695">
-        <v>1703494800</v>
+        <v>1703484000</v>
       </c>
       <c r="B695" t="s">
         <v>595</v>
@@ -23729,7 +23729,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696">
-        <v>1703498400</v>
+        <v>1703487600</v>
       </c>
       <c r="B696" t="s">
         <v>596</v>
@@ -23761,7 +23761,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697">
-        <v>1703502000</v>
+        <v>1703491200</v>
       </c>
       <c r="B697" t="s">
         <v>597</v>
@@ -23793,7 +23793,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698">
-        <v>1703505600</v>
+        <v>1703494800</v>
       </c>
       <c r="B698" t="s">
         <v>598</v>
@@ -23825,7 +23825,7 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699">
-        <v>1703509200</v>
+        <v>1703498400</v>
       </c>
       <c r="B699" t="s">
         <v>599</v>
@@ -23857,7 +23857,7 @@
     </row>
     <row r="700" spans="1:10">
       <c r="A700">
-        <v>1703512800</v>
+        <v>1703502000</v>
       </c>
       <c r="B700" t="s">
         <v>600</v>
@@ -23889,7 +23889,7 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701">
-        <v>1703516400</v>
+        <v>1703505600</v>
       </c>
       <c r="B701" t="s">
         <v>601</v>
@@ -23921,7 +23921,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702">
-        <v>1703520000</v>
+        <v>1703509200</v>
       </c>
       <c r="B702" t="s">
         <v>602</v>
@@ -23953,7 +23953,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703">
-        <v>1703523600</v>
+        <v>1703512800</v>
       </c>
       <c r="B703" t="s">
         <v>603</v>
@@ -23985,7 +23985,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704">
-        <v>1703527200</v>
+        <v>1703516400</v>
       </c>
       <c r="B704" t="s">
         <v>604</v>
@@ -24017,7 +24017,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705">
-        <v>1703530800</v>
+        <v>1703520000</v>
       </c>
       <c r="B705" t="s">
         <v>605</v>
@@ -24049,7 +24049,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706">
-        <v>1703534400</v>
+        <v>1703523600</v>
       </c>
       <c r="B706" t="s">
         <v>606</v>
@@ -24081,7 +24081,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707">
-        <v>1703538000</v>
+        <v>1703527200</v>
       </c>
       <c r="B707" t="s">
         <v>607</v>
@@ -24113,7 +24113,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708">
-        <v>1703541600</v>
+        <v>1703530800</v>
       </c>
       <c r="B708" t="s">
         <v>608</v>
@@ -24145,7 +24145,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709">
-        <v>1703545200</v>
+        <v>1703534400</v>
       </c>
       <c r="B709" t="s">
         <v>609</v>
@@ -24177,7 +24177,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710">
-        <v>1703548800</v>
+        <v>1703538000</v>
       </c>
       <c r="B710" t="s">
         <v>610</v>
@@ -24209,7 +24209,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711">
-        <v>1703552400</v>
+        <v>1703541600</v>
       </c>
       <c r="B711" t="s">
         <v>611</v>
@@ -24241,7 +24241,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712">
-        <v>1703556000</v>
+        <v>1703545200</v>
       </c>
       <c r="B712" t="s">
         <v>612</v>
@@ -24273,7 +24273,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713">
-        <v>1703559600</v>
+        <v>1703548800</v>
       </c>
       <c r="B713" t="s">
         <v>613</v>
@@ -24305,7 +24305,7 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714">
-        <v>1703563200</v>
+        <v>1703552400</v>
       </c>
       <c r="B714" t="s">
         <v>614</v>
@@ -24337,7 +24337,7 @@
     </row>
     <row r="715" spans="1:10">
       <c r="A715">
-        <v>1703566800</v>
+        <v>1703556000</v>
       </c>
       <c r="B715" t="s">
         <v>615</v>
@@ -24369,7 +24369,7 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716">
-        <v>1703570400</v>
+        <v>1703559600</v>
       </c>
       <c r="B716" t="s">
         <v>616</v>
@@ -24401,7 +24401,7 @@
     </row>
     <row r="717" spans="1:10">
       <c r="A717">
-        <v>1703574000</v>
+        <v>1703563200</v>
       </c>
       <c r="B717" t="s">
         <v>617</v>
@@ -24433,7 +24433,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718">
-        <v>1703577600</v>
+        <v>1703566800</v>
       </c>
       <c r="B718" t="s">
         <v>618</v>
@@ -24465,7 +24465,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719">
-        <v>1703581200</v>
+        <v>1703570400</v>
       </c>
       <c r="B719" t="s">
         <v>619</v>
@@ -24497,7 +24497,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720">
-        <v>1703584800</v>
+        <v>1703574000</v>
       </c>
       <c r="B720" t="s">
         <v>620</v>
@@ -24529,7 +24529,7 @@
     </row>
     <row r="721" spans="1:10">
       <c r="A721">
-        <v>1703588400</v>
+        <v>1703577600</v>
       </c>
       <c r="B721" t="s">
         <v>621</v>
@@ -24561,7 +24561,7 @@
     </row>
     <row r="722" spans="1:10">
       <c r="A722">
-        <v>1703592000</v>
+        <v>1703581200</v>
       </c>
       <c r="B722" t="s">
         <v>622</v>
@@ -24593,7 +24593,7 @@
     </row>
     <row r="723" spans="1:10">
       <c r="A723">
-        <v>1703595600</v>
+        <v>1703584800</v>
       </c>
       <c r="B723" t="s">
         <v>623</v>
@@ -24625,7 +24625,7 @@
     </row>
     <row r="724" spans="1:10">
       <c r="A724">
-        <v>1703599200</v>
+        <v>1703588400</v>
       </c>
       <c r="B724" t="s">
         <v>624</v>
@@ -24657,7 +24657,7 @@
     </row>
     <row r="725" spans="1:10">
       <c r="A725">
-        <v>1703602800</v>
+        <v>1703592000</v>
       </c>
       <c r="B725" t="s">
         <v>625</v>
@@ -24689,7 +24689,7 @@
     </row>
     <row r="726" spans="1:10">
       <c r="A726">
-        <v>1703606400</v>
+        <v>1703595600</v>
       </c>
       <c r="B726" t="s">
         <v>626</v>
@@ -24721,7 +24721,7 @@
     </row>
     <row r="727" spans="1:10">
       <c r="A727">
-        <v>1703610000</v>
+        <v>1703599200</v>
       </c>
       <c r="B727" t="s">
         <v>627</v>
@@ -24753,7 +24753,7 @@
     </row>
     <row r="728" spans="1:10">
       <c r="A728">
-        <v>1703613600</v>
+        <v>1703602800</v>
       </c>
       <c r="B728" t="s">
         <v>628</v>
@@ -24785,7 +24785,7 @@
     </row>
     <row r="729" spans="1:10">
       <c r="A729">
-        <v>1703617200</v>
+        <v>1703606400</v>
       </c>
       <c r="B729" t="s">
         <v>629</v>
@@ -24817,7 +24817,7 @@
     </row>
     <row r="730" spans="1:10">
       <c r="A730">
-        <v>1703620800</v>
+        <v>1703610000</v>
       </c>
       <c r="B730" t="s">
         <v>630</v>
@@ -24849,7 +24849,7 @@
     </row>
     <row r="731" spans="1:10">
       <c r="A731">
-        <v>1703624400</v>
+        <v>1703613600</v>
       </c>
       <c r="B731" t="s">
         <v>631</v>
@@ -24881,7 +24881,7 @@
     </row>
     <row r="732" spans="1:10">
       <c r="A732">
-        <v>1703628000</v>
+        <v>1703617200</v>
       </c>
       <c r="B732" t="s">
         <v>632</v>
@@ -24913,7 +24913,7 @@
     </row>
     <row r="733" spans="1:10">
       <c r="A733">
-        <v>1703631600</v>
+        <v>1703620800</v>
       </c>
       <c r="B733" t="s">
         <v>633</v>
@@ -24945,7 +24945,7 @@
     </row>
     <row r="734" spans="1:10">
       <c r="A734">
-        <v>1703635200</v>
+        <v>1703624400</v>
       </c>
       <c r="B734" t="s">
         <v>634</v>
@@ -24977,7 +24977,7 @@
     </row>
     <row r="735" spans="1:10">
       <c r="A735">
-        <v>1703638800</v>
+        <v>1703628000</v>
       </c>
       <c r="B735" t="s">
         <v>635</v>
@@ -25009,7 +25009,7 @@
     </row>
     <row r="736" spans="1:10">
       <c r="A736">
-        <v>1703642400</v>
+        <v>1703631600</v>
       </c>
       <c r="B736" t="s">
         <v>636</v>
@@ -25041,7 +25041,7 @@
     </row>
     <row r="737" spans="1:10">
       <c r="A737">
-        <v>1703646000</v>
+        <v>1703635200</v>
       </c>
       <c r="B737" t="s">
         <v>637</v>
@@ -25073,7 +25073,7 @@
     </row>
     <row r="738" spans="1:10">
       <c r="A738">
-        <v>1703649600</v>
+        <v>1703638800</v>
       </c>
       <c r="B738" t="s">
         <v>638</v>
@@ -25105,7 +25105,7 @@
     </row>
     <row r="739" spans="1:10">
       <c r="A739">
-        <v>1703653200</v>
+        <v>1703642400</v>
       </c>
       <c r="B739" t="s">
         <v>639</v>
@@ -25137,7 +25137,7 @@
     </row>
     <row r="740" spans="1:10">
       <c r="A740">
-        <v>1703656800</v>
+        <v>1703646000</v>
       </c>
       <c r="B740" t="s">
         <v>640</v>
@@ -25169,7 +25169,7 @@
     </row>
     <row r="741" spans="1:10">
       <c r="A741">
-        <v>1703660400</v>
+        <v>1703649600</v>
       </c>
       <c r="B741" t="s">
         <v>641</v>
@@ -25201,7 +25201,7 @@
     </row>
     <row r="742" spans="1:10">
       <c r="A742">
-        <v>1703664000</v>
+        <v>1703653200</v>
       </c>
       <c r="B742" t="s">
         <v>642</v>
@@ -25233,7 +25233,7 @@
     </row>
     <row r="743" spans="1:10">
       <c r="A743">
-        <v>1703667600</v>
+        <v>1703656800</v>
       </c>
       <c r="B743" t="s">
         <v>643</v>
@@ -25265,7 +25265,7 @@
     </row>
     <row r="744" spans="1:10">
       <c r="A744">
-        <v>1703671200</v>
+        <v>1703660400</v>
       </c>
       <c r="B744" t="s">
         <v>644</v>
@@ -25297,7 +25297,7 @@
     </row>
     <row r="745" spans="1:10">
       <c r="A745">
-        <v>1703674800</v>
+        <v>1703664000</v>
       </c>
       <c r="B745" t="s">
         <v>645</v>
@@ -25329,7 +25329,7 @@
     </row>
     <row r="746" spans="1:10">
       <c r="A746">
-        <v>1703678400</v>
+        <v>1703667600</v>
       </c>
       <c r="B746" t="s">
         <v>646</v>
@@ -25361,7 +25361,7 @@
     </row>
     <row r="747" spans="1:10">
       <c r="A747">
-        <v>1703682000</v>
+        <v>1703671200</v>
       </c>
       <c r="B747" t="s">
         <v>647</v>
@@ -25393,7 +25393,7 @@
     </row>
     <row r="748" spans="1:10">
       <c r="A748">
-        <v>1703685600</v>
+        <v>1703674800</v>
       </c>
       <c r="B748" t="s">
         <v>648</v>
@@ -25425,7 +25425,7 @@
     </row>
     <row r="749" spans="1:10">
       <c r="A749">
-        <v>1703689200</v>
+        <v>1703678400</v>
       </c>
       <c r="B749" t="s">
         <v>649</v>
@@ -25457,7 +25457,7 @@
     </row>
     <row r="750" spans="1:10">
       <c r="A750">
-        <v>1703692800</v>
+        <v>1703682000</v>
       </c>
       <c r="B750" t="s">
         <v>650</v>
@@ -25489,7 +25489,7 @@
     </row>
     <row r="751" spans="1:10">
       <c r="A751">
-        <v>1703696400</v>
+        <v>1703685600</v>
       </c>
       <c r="B751" t="s">
         <v>651</v>
@@ -25521,7 +25521,7 @@
     </row>
     <row r="752" spans="1:10">
       <c r="A752">
-        <v>1703700000</v>
+        <v>1703689200</v>
       </c>
       <c r="B752" t="s">
         <v>652</v>
@@ -25553,7 +25553,7 @@
     </row>
     <row r="753" spans="1:10">
       <c r="A753">
-        <v>1703703600</v>
+        <v>1703692800</v>
       </c>
       <c r="B753" t="s">
         <v>653</v>
@@ -25585,7 +25585,7 @@
     </row>
     <row r="754" spans="1:10">
       <c r="A754">
-        <v>1703707200</v>
+        <v>1703696400</v>
       </c>
       <c r="B754" t="s">
         <v>654</v>
@@ -25617,7 +25617,7 @@
     </row>
     <row r="755" spans="1:10">
       <c r="A755">
-        <v>1703710800</v>
+        <v>1703700000</v>
       </c>
       <c r="B755" t="s">
         <v>655</v>
@@ -25649,7 +25649,7 @@
     </row>
     <row r="756" spans="1:10">
       <c r="A756">
-        <v>1703714400</v>
+        <v>1703703600</v>
       </c>
       <c r="B756" t="s">
         <v>656</v>
@@ -25681,7 +25681,7 @@
     </row>
     <row r="757" spans="1:10">
       <c r="A757">
-        <v>1703718000</v>
+        <v>1703707200</v>
       </c>
       <c r="B757" t="s">
         <v>657</v>
@@ -25713,7 +25713,7 @@
     </row>
     <row r="758" spans="1:10">
       <c r="A758">
-        <v>1703721600</v>
+        <v>1703710800</v>
       </c>
       <c r="B758" t="s">
         <v>658</v>
@@ -25745,7 +25745,7 @@
     </row>
     <row r="759" spans="1:10">
       <c r="A759">
-        <v>1703725200</v>
+        <v>1703714400</v>
       </c>
       <c r="B759" t="s">
         <v>659</v>
@@ -25777,7 +25777,7 @@
     </row>
     <row r="760" spans="1:10">
       <c r="A760">
-        <v>1703728800</v>
+        <v>1703718000</v>
       </c>
       <c r="B760" t="s">
         <v>660</v>
@@ -25809,7 +25809,7 @@
     </row>
     <row r="761" spans="1:10">
       <c r="A761">
-        <v>1703732400</v>
+        <v>1703721600</v>
       </c>
       <c r="B761" t="s">
         <v>661</v>
@@ -25841,7 +25841,7 @@
     </row>
     <row r="762" spans="1:10">
       <c r="A762">
-        <v>1703736000</v>
+        <v>1703725200</v>
       </c>
       <c r="B762" t="s">
         <v>662</v>
@@ -25873,7 +25873,7 @@
     </row>
     <row r="763" spans="1:10">
       <c r="A763">
-        <v>1703739600</v>
+        <v>1703728800</v>
       </c>
       <c r="B763" t="s">
         <v>663</v>
@@ -25905,7 +25905,7 @@
     </row>
     <row r="764" spans="1:10">
       <c r="A764">
-        <v>1703743200</v>
+        <v>1703732400</v>
       </c>
       <c r="B764" t="s">
         <v>664</v>
@@ -25937,7 +25937,7 @@
     </row>
     <row r="765" spans="1:10">
       <c r="A765">
-        <v>1703746800</v>
+        <v>1703736000</v>
       </c>
       <c r="B765" t="s">
         <v>665</v>
@@ -25969,7 +25969,7 @@
     </row>
     <row r="766" spans="1:10">
       <c r="A766">
-        <v>1703750400</v>
+        <v>1703739600</v>
       </c>
       <c r="B766" t="s">
         <v>666</v>
@@ -26001,7 +26001,7 @@
     </row>
     <row r="767" spans="1:10">
       <c r="A767">
-        <v>1703754000</v>
+        <v>1703743200</v>
       </c>
       <c r="B767" t="s">
         <v>667</v>
@@ -26033,7 +26033,7 @@
     </row>
     <row r="768" spans="1:10">
       <c r="A768">
-        <v>1703757600</v>
+        <v>1703746800</v>
       </c>
       <c r="B768" t="s">
         <v>668</v>
@@ -26065,7 +26065,7 @@
     </row>
     <row r="769" spans="1:10">
       <c r="A769">
-        <v>1703761200</v>
+        <v>1703750400</v>
       </c>
       <c r="B769" t="s">
         <v>669</v>
@@ -26097,7 +26097,7 @@
     </row>
     <row r="770" spans="1:10">
       <c r="A770">
-        <v>1703764800</v>
+        <v>1703754000</v>
       </c>
       <c r="B770" t="s">
         <v>670</v>
@@ -26129,7 +26129,7 @@
     </row>
     <row r="771" spans="1:10">
       <c r="A771">
-        <v>1703768400</v>
+        <v>1703757600</v>
       </c>
       <c r="B771" t="s">
         <v>671</v>
@@ -26161,7 +26161,7 @@
     </row>
     <row r="772" spans="1:10">
       <c r="A772">
-        <v>1703772000</v>
+        <v>1703761200</v>
       </c>
       <c r="B772" t="s">
         <v>672</v>
@@ -26193,7 +26193,7 @@
     </row>
     <row r="773" spans="1:10">
       <c r="A773">
-        <v>1703775600</v>
+        <v>1703764800</v>
       </c>
       <c r="B773" t="s">
         <v>673</v>
@@ -26225,7 +26225,7 @@
     </row>
     <row r="774" spans="1:10">
       <c r="A774">
-        <v>1703779200</v>
+        <v>1703768400</v>
       </c>
       <c r="B774" t="s">
         <v>674</v>
@@ -26257,7 +26257,7 @@
     </row>
     <row r="775" spans="1:10">
       <c r="A775">
-        <v>1703782800</v>
+        <v>1703772000</v>
       </c>
       <c r="B775" t="s">
         <v>675</v>
@@ -26289,7 +26289,7 @@
     </row>
     <row r="776" spans="1:10">
       <c r="A776">
-        <v>1703786400</v>
+        <v>1703775600</v>
       </c>
       <c r="B776" t="s">
         <v>676</v>
@@ -26321,7 +26321,7 @@
     </row>
     <row r="777" spans="1:10">
       <c r="A777">
-        <v>1703790000</v>
+        <v>1703779200</v>
       </c>
       <c r="B777" t="s">
         <v>677</v>
@@ -26353,7 +26353,7 @@
     </row>
     <row r="778" spans="1:10">
       <c r="A778">
-        <v>1703793600</v>
+        <v>1703782800</v>
       </c>
       <c r="B778" t="s">
         <v>678</v>
@@ -26385,7 +26385,7 @@
     </row>
     <row r="779" spans="1:10">
       <c r="A779">
-        <v>1703797200</v>
+        <v>1703786400</v>
       </c>
       <c r="B779" t="s">
         <v>679</v>
@@ -26417,7 +26417,7 @@
     </row>
     <row r="780" spans="1:10">
       <c r="A780">
-        <v>1703800800</v>
+        <v>1703790000</v>
       </c>
       <c r="B780" t="s">
         <v>680</v>
@@ -26449,7 +26449,7 @@
     </row>
     <row r="781" spans="1:10">
       <c r="A781">
-        <v>1703804400</v>
+        <v>1703793600</v>
       </c>
       <c r="B781" t="s">
         <v>681</v>
@@ -26481,7 +26481,7 @@
     </row>
     <row r="782" spans="1:10">
       <c r="A782">
-        <v>1703808000</v>
+        <v>1703797200</v>
       </c>
       <c r="B782" t="s">
         <v>682</v>
@@ -26513,7 +26513,7 @@
     </row>
     <row r="783" spans="1:10">
       <c r="A783">
-        <v>1703811600</v>
+        <v>1703800800</v>
       </c>
       <c r="B783" t="s">
         <v>683</v>
@@ -26545,7 +26545,7 @@
     </row>
     <row r="784" spans="1:10">
       <c r="A784">
-        <v>1703815200</v>
+        <v>1703804400</v>
       </c>
       <c r="B784" t="s">
         <v>684</v>
@@ -26577,7 +26577,7 @@
     </row>
     <row r="785" spans="1:10">
       <c r="A785">
-        <v>1703818800</v>
+        <v>1703808000</v>
       </c>
       <c r="B785" t="s">
         <v>685</v>
@@ -26609,7 +26609,7 @@
     </row>
     <row r="786" spans="1:10">
       <c r="A786">
-        <v>1703822400</v>
+        <v>1703811600</v>
       </c>
       <c r="B786" t="s">
         <v>686</v>
@@ -26641,7 +26641,7 @@
     </row>
     <row r="787" spans="1:10">
       <c r="A787">
-        <v>1703826000</v>
+        <v>1703815200</v>
       </c>
       <c r="B787" t="s">
         <v>687</v>
@@ -26673,7 +26673,7 @@
     </row>
     <row r="788" spans="1:10">
       <c r="A788">
-        <v>1703829600</v>
+        <v>1703818800</v>
       </c>
       <c r="B788" t="s">
         <v>688</v>
@@ -26705,7 +26705,7 @@
     </row>
     <row r="789" spans="1:10">
       <c r="A789">
-        <v>1703833200</v>
+        <v>1703822400</v>
       </c>
       <c r="B789" t="s">
         <v>689</v>
@@ -26737,7 +26737,7 @@
     </row>
     <row r="790" spans="1:10">
       <c r="A790">
-        <v>1703836800</v>
+        <v>1703826000</v>
       </c>
       <c r="B790" t="s">
         <v>690</v>
@@ -26769,7 +26769,7 @@
     </row>
     <row r="791" spans="1:10">
       <c r="A791">
-        <v>1703840400</v>
+        <v>1703829600</v>
       </c>
       <c r="B791" t="s">
         <v>691</v>
@@ -26801,7 +26801,7 @@
     </row>
     <row r="792" spans="1:10">
       <c r="A792">
-        <v>1703844000</v>
+        <v>1703833200</v>
       </c>
       <c r="B792" t="s">
         <v>692</v>
@@ -26833,7 +26833,7 @@
     </row>
     <row r="793" spans="1:10">
       <c r="A793">
-        <v>1703847600</v>
+        <v>1703836800</v>
       </c>
       <c r="B793" t="s">
         <v>693</v>
@@ -26865,7 +26865,7 @@
     </row>
     <row r="794" spans="1:10">
       <c r="A794">
-        <v>1703851200</v>
+        <v>1703840400</v>
       </c>
       <c r="B794" t="s">
         <v>694</v>
@@ -26897,7 +26897,7 @@
     </row>
     <row r="795" spans="1:10">
       <c r="A795">
-        <v>1703854800</v>
+        <v>1703844000</v>
       </c>
       <c r="B795" t="s">
         <v>695</v>
@@ -26929,7 +26929,7 @@
     </row>
     <row r="796" spans="1:10">
       <c r="A796">
-        <v>1703858400</v>
+        <v>1703847600</v>
       </c>
       <c r="B796" t="s">
         <v>696</v>
@@ -26961,7 +26961,7 @@
     </row>
     <row r="797" spans="1:10">
       <c r="A797">
-        <v>1703862000</v>
+        <v>1703851200</v>
       </c>
       <c r="B797" t="s">
         <v>697</v>
@@ -26993,7 +26993,7 @@
     </row>
     <row r="798" spans="1:10">
       <c r="A798">
-        <v>1703865600</v>
+        <v>1703854800</v>
       </c>
       <c r="B798" t="s">
         <v>698</v>
@@ -27025,7 +27025,7 @@
     </row>
     <row r="799" spans="1:10">
       <c r="A799">
-        <v>1703869200</v>
+        <v>1703858400</v>
       </c>
       <c r="B799" t="s">
         <v>699</v>
@@ -27057,7 +27057,7 @@
     </row>
     <row r="800" spans="1:10">
       <c r="A800">
-        <v>1703872800</v>
+        <v>1703862000</v>
       </c>
       <c r="B800" t="s">
         <v>700</v>
@@ -27089,7 +27089,7 @@
     </row>
     <row r="801" spans="1:10">
       <c r="A801">
-        <v>1703876400</v>
+        <v>1703865600</v>
       </c>
       <c r="B801" t="s">
         <v>701</v>
@@ -27121,7 +27121,7 @@
     </row>
     <row r="802" spans="1:10">
       <c r="A802">
-        <v>1703880000</v>
+        <v>1703869200</v>
       </c>
       <c r="B802" t="s">
         <v>702</v>
@@ -27153,7 +27153,7 @@
     </row>
     <row r="803" spans="1:10">
       <c r="A803">
-        <v>1703883600</v>
+        <v>1703872800</v>
       </c>
       <c r="B803" t="s">
         <v>703</v>
@@ -27185,7 +27185,7 @@
     </row>
     <row r="804" spans="1:10">
       <c r="A804">
-        <v>1703887200</v>
+        <v>1703876400</v>
       </c>
       <c r="B804" t="s">
         <v>704</v>
@@ -27217,7 +27217,7 @@
     </row>
     <row r="805" spans="1:10">
       <c r="A805">
-        <v>1703890800</v>
+        <v>1703880000</v>
       </c>
       <c r="B805" t="s">
         <v>705</v>
@@ -27249,7 +27249,7 @@
     </row>
     <row r="806" spans="1:10">
       <c r="A806">
-        <v>1703894400</v>
+        <v>1703883600</v>
       </c>
       <c r="B806" t="s">
         <v>706</v>
@@ -27281,7 +27281,7 @@
     </row>
     <row r="807" spans="1:10">
       <c r="A807">
-        <v>1703898000</v>
+        <v>1703887200</v>
       </c>
       <c r="B807" t="s">
         <v>707</v>
@@ -27313,7 +27313,7 @@
     </row>
     <row r="808" spans="1:10">
       <c r="A808">
-        <v>1703901600</v>
+        <v>1703890800</v>
       </c>
       <c r="B808" t="s">
         <v>708</v>
@@ -27345,7 +27345,7 @@
     </row>
     <row r="809" spans="1:10">
       <c r="A809">
-        <v>1703905200</v>
+        <v>1703894400</v>
       </c>
       <c r="B809" t="s">
         <v>709</v>
@@ -27377,7 +27377,7 @@
     </row>
     <row r="810" spans="1:10">
       <c r="A810">
-        <v>1703908800</v>
+        <v>1703898000</v>
       </c>
       <c r="B810" t="s">
         <v>710</v>
@@ -27409,7 +27409,7 @@
     </row>
     <row r="811" spans="1:10">
       <c r="A811">
-        <v>1703912400</v>
+        <v>1703901600</v>
       </c>
       <c r="B811" t="s">
         <v>711</v>
@@ -27441,7 +27441,7 @@
     </row>
     <row r="812" spans="1:10">
       <c r="A812">
-        <v>1703916000</v>
+        <v>1703905200</v>
       </c>
       <c r="B812" t="s">
         <v>712</v>
@@ -27473,7 +27473,7 @@
     </row>
     <row r="813" spans="1:10">
       <c r="A813">
-        <v>1703919600</v>
+        <v>1703908800</v>
       </c>
       <c r="B813" t="s">
         <v>713</v>
@@ -27505,7 +27505,7 @@
     </row>
     <row r="814" spans="1:10">
       <c r="A814">
-        <v>1703923200</v>
+        <v>1703912400</v>
       </c>
       <c r="B814" t="s">
         <v>714</v>
@@ -27537,7 +27537,7 @@
     </row>
     <row r="815" spans="1:10">
       <c r="A815">
-        <v>1703926800</v>
+        <v>1703916000</v>
       </c>
       <c r="B815" t="s">
         <v>715</v>
@@ -27569,7 +27569,7 @@
     </row>
     <row r="816" spans="1:10">
       <c r="A816">
-        <v>1703930400</v>
+        <v>1703919600</v>
       </c>
       <c r="B816" t="s">
         <v>716</v>
@@ -27601,7 +27601,7 @@
     </row>
     <row r="817" spans="1:10">
       <c r="A817">
-        <v>1703934000</v>
+        <v>1703923200</v>
       </c>
       <c r="B817" t="s">
         <v>717</v>
@@ -27633,7 +27633,7 @@
     </row>
     <row r="818" spans="1:10">
       <c r="A818">
-        <v>1703937600</v>
+        <v>1703926800</v>
       </c>
       <c r="B818" t="s">
         <v>718</v>
@@ -27665,7 +27665,7 @@
     </row>
     <row r="819" spans="1:10">
       <c r="A819">
-        <v>1703941200</v>
+        <v>1703930400</v>
       </c>
       <c r="B819" t="s">
         <v>719</v>
@@ -27697,7 +27697,7 @@
     </row>
     <row r="820" spans="1:10">
       <c r="A820">
-        <v>1703944800</v>
+        <v>1703934000</v>
       </c>
       <c r="B820" t="s">
         <v>720</v>
@@ -27729,7 +27729,7 @@
     </row>
     <row r="821" spans="1:10">
       <c r="A821">
-        <v>1703948400</v>
+        <v>1703937600</v>
       </c>
       <c r="B821" t="s">
         <v>721</v>
@@ -27761,7 +27761,7 @@
     </row>
     <row r="822" spans="1:10">
       <c r="A822">
-        <v>1703952000</v>
+        <v>1703941200</v>
       </c>
       <c r="B822" t="s">
         <v>722</v>
@@ -27793,7 +27793,7 @@
     </row>
     <row r="823" spans="1:10">
       <c r="A823">
-        <v>1703955600</v>
+        <v>1703944800</v>
       </c>
       <c r="B823" t="s">
         <v>723</v>
@@ -27825,7 +27825,7 @@
     </row>
     <row r="824" spans="1:10">
       <c r="A824">
-        <v>1703959200</v>
+        <v>1703948400</v>
       </c>
       <c r="B824" t="s">
         <v>724</v>
@@ -27857,7 +27857,7 @@
     </row>
     <row r="825" spans="1:10">
       <c r="A825">
-        <v>1703962800</v>
+        <v>1703952000</v>
       </c>
       <c r="B825" t="s">
         <v>725</v>
@@ -27889,7 +27889,7 @@
     </row>
     <row r="826" spans="1:10">
       <c r="A826">
-        <v>1703966400</v>
+        <v>1703955600</v>
       </c>
       <c r="B826" t="s">
         <v>726</v>
@@ -27921,7 +27921,7 @@
     </row>
     <row r="827" spans="1:10">
       <c r="A827">
-        <v>1703970000</v>
+        <v>1703959200</v>
       </c>
       <c r="B827" t="s">
         <v>727</v>
@@ -27953,7 +27953,7 @@
     </row>
     <row r="828" spans="1:10">
       <c r="A828">
-        <v>1703973600</v>
+        <v>1703962800</v>
       </c>
       <c r="B828" t="s">
         <v>728</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="829" spans="1:10">
       <c r="A829">
-        <v>1703977200</v>
+        <v>1703966400</v>
       </c>
       <c r="B829" t="s">
         <v>729</v>
@@ -28017,7 +28017,7 @@
     </row>
     <row r="830" spans="1:10">
       <c r="A830">
-        <v>1703980800</v>
+        <v>1703970000</v>
       </c>
       <c r="B830" t="s">
         <v>730</v>
@@ -28049,7 +28049,7 @@
     </row>
     <row r="831" spans="1:10">
       <c r="A831">
-        <v>1703984400</v>
+        <v>1703973600</v>
       </c>
       <c r="B831" t="s">
         <v>731</v>
@@ -28081,7 +28081,7 @@
     </row>
     <row r="832" spans="1:10">
       <c r="A832">
-        <v>1703988000</v>
+        <v>1703977200</v>
       </c>
       <c r="B832" t="s">
         <v>732</v>
@@ -28113,7 +28113,7 @@
     </row>
     <row r="833" spans="1:10">
       <c r="A833">
-        <v>1703991600</v>
+        <v>1703980800</v>
       </c>
       <c r="B833" t="s">
         <v>733</v>
@@ -28145,7 +28145,7 @@
     </row>
     <row r="834" spans="1:10">
       <c r="A834">
-        <v>1703995200</v>
+        <v>1703984400</v>
       </c>
       <c r="B834" t="s">
         <v>734</v>
@@ -28177,7 +28177,7 @@
     </row>
     <row r="835" spans="1:10">
       <c r="A835">
-        <v>1703998800</v>
+        <v>1703988000</v>
       </c>
       <c r="B835" t="s">
         <v>735</v>
@@ -28209,7 +28209,7 @@
     </row>
     <row r="836" spans="1:10">
       <c r="A836">
-        <v>1704002400</v>
+        <v>1703991600</v>
       </c>
       <c r="B836" t="s">
         <v>736</v>
@@ -28241,7 +28241,7 @@
     </row>
     <row r="837" spans="1:10">
       <c r="A837">
-        <v>1704006000</v>
+        <v>1703995200</v>
       </c>
       <c r="B837" t="s">
         <v>737</v>
@@ -28273,7 +28273,7 @@
     </row>
     <row r="838" spans="1:10">
       <c r="A838">
-        <v>1704009600</v>
+        <v>1703998800</v>
       </c>
       <c r="B838" t="s">
         <v>738</v>
@@ -28305,7 +28305,7 @@
     </row>
     <row r="839" spans="1:10">
       <c r="A839">
-        <v>1704013200</v>
+        <v>1704002400</v>
       </c>
       <c r="B839" t="s">
         <v>739</v>
@@ -28337,7 +28337,7 @@
     </row>
     <row r="840" spans="1:10">
       <c r="A840">
-        <v>1704016800</v>
+        <v>1704006000</v>
       </c>
       <c r="B840" t="s">
         <v>740</v>
@@ -28369,7 +28369,7 @@
     </row>
     <row r="841" spans="1:10">
       <c r="A841">
-        <v>1704020400</v>
+        <v>1704009600</v>
       </c>
       <c r="B841" t="s">
         <v>741</v>
@@ -28401,7 +28401,7 @@
     </row>
     <row r="842" spans="1:10">
       <c r="A842">
-        <v>1704024000</v>
+        <v>1704013200</v>
       </c>
       <c r="B842" t="s">
         <v>742</v>
@@ -28433,7 +28433,7 @@
     </row>
     <row r="843" spans="1:10">
       <c r="A843">
-        <v>1704027600</v>
+        <v>1704016800</v>
       </c>
       <c r="B843" t="s">
         <v>743</v>
@@ -28465,7 +28465,7 @@
     </row>
     <row r="844" spans="1:10">
       <c r="A844">
-        <v>1704031200</v>
+        <v>1704020400</v>
       </c>
       <c r="B844" t="s">
         <v>744</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="845" spans="1:10">
       <c r="A845">
-        <v>1704034800</v>
+        <v>1704024000</v>
       </c>
       <c r="B845" t="s">
         <v>745</v>
@@ -28529,7 +28529,7 @@
     </row>
     <row r="846" spans="1:10">
       <c r="A846">
-        <v>1704038400</v>
+        <v>1704027600</v>
       </c>
       <c r="B846" t="s">
         <v>746</v>
@@ -28561,7 +28561,7 @@
     </row>
     <row r="847" spans="1:10">
       <c r="A847">
-        <v>1704042000</v>
+        <v>1704031200</v>
       </c>
       <c r="B847" t="s">
         <v>747</v>
@@ -28593,7 +28593,7 @@
     </row>
     <row r="848" spans="1:10">
       <c r="A848">
-        <v>1704045600</v>
+        <v>1704034800</v>
       </c>
       <c r="B848" t="s">
         <v>748</v>
@@ -28625,7 +28625,7 @@
     </row>
     <row r="849" spans="1:10">
       <c r="A849">
-        <v>1704049200</v>
+        <v>1704038400</v>
       </c>
       <c r="B849" t="s">
         <v>749</v>
@@ -28657,7 +28657,7 @@
     </row>
     <row r="850" spans="1:10">
       <c r="A850">
-        <v>1704052800</v>
+        <v>1704042000</v>
       </c>
       <c r="B850" t="s">
         <v>750</v>
@@ -28689,7 +28689,7 @@
     </row>
     <row r="851" spans="1:10">
       <c r="A851">
-        <v>1704056400</v>
+        <v>1704045600</v>
       </c>
       <c r="B851" t="s">
         <v>751</v>
@@ -28721,7 +28721,7 @@
     </row>
     <row r="852" spans="1:10">
       <c r="A852">
-        <v>1704060000</v>
+        <v>1704049200</v>
       </c>
       <c r="B852" t="s">
         <v>752</v>
@@ -28753,7 +28753,7 @@
     </row>
     <row r="853" spans="1:10">
       <c r="A853">
-        <v>1704063600</v>
+        <v>1704052800</v>
       </c>
       <c r="B853" t="s">
         <v>753</v>
